--- a/capiq_data/in_process_data/IQ312949.xlsx
+++ b/capiq_data/in_process_data/IQ312949.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74314AF-036E-4EBF-AFD1-74A314690407}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25AD80C-18C9-4138-8D6E-DA72BB69B076}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"bb92a7c9-2d31-4b02-b6df-bd2421ed0aaa"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"20e2329f-43cb-49db-8251-158c3acf3729"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>47.3</v>
+        <v>60.816000000000003</v>
       </c>
       <c r="D2">
-        <v>832.6</v>
+        <v>703.84500000000003</v>
       </c>
       <c r="E2">
-        <v>202.8</v>
+        <v>247.41</v>
       </c>
       <c r="F2">
-        <v>192.9</v>
+        <v>206.881</v>
       </c>
       <c r="G2">
-        <v>1092.7</v>
+        <v>710.98099999999999</v>
       </c>
       <c r="H2">
-        <v>9282.9</v>
+        <v>6733.7659999999996</v>
       </c>
       <c r="I2">
-        <v>336.3</v>
+        <v>296.959</v>
       </c>
       <c r="J2">
-        <v>2763.4</v>
+        <v>1910.116</v>
       </c>
       <c r="K2">
-        <v>47.4</v>
+        <v>499.83499999999998</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,120 +892,120 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>866.7</v>
+        <v>1154.335</v>
       </c>
       <c r="O2">
-        <v>6203.5</v>
+        <v>4559.1629999999996</v>
       </c>
       <c r="P2">
-        <v>2812.1</v>
+        <v>2502.4279999999999</v>
       </c>
       <c r="Q2">
-        <v>22.3</v>
+        <v>77.146000000000001</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>4704</v>
+        <v>7882</v>
       </c>
       <c r="T2">
-        <v>3079.4</v>
+        <v>2174.6030000000001</v>
       </c>
       <c r="U2">
-        <v>159.30000000000001</v>
+        <v>148.41499999999999</v>
       </c>
       <c r="V2">
-        <v>289.3</v>
+        <v>72.989000000000004</v>
       </c>
       <c r="W2">
-        <v>-43.7</v>
+        <v>-39.488999999999997</v>
       </c>
       <c r="X2">
-        <v>-7</v>
+        <v>270.49200000000002</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="AA2">
-        <v>47.3</v>
+        <v>60.816000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>73.5</v>
+        <v>9.1989999999999998</v>
       </c>
       <c r="D3">
-        <v>877.2</v>
+        <v>852.71299999999997</v>
       </c>
       <c r="E3">
-        <v>211.1</v>
+        <v>229.64400000000001</v>
       </c>
       <c r="F3">
-        <v>235.2</v>
+        <v>202.34200000000001</v>
       </c>
       <c r="G3">
-        <v>977</v>
+        <v>677.39499999999998</v>
       </c>
       <c r="H3">
-        <v>9400.5</v>
+        <v>6368.0450000000001</v>
       </c>
       <c r="I3">
-        <v>300.2</v>
+        <v>228.125</v>
       </c>
       <c r="J3">
-        <v>2763.6</v>
+        <v>2233.4299999999998</v>
       </c>
       <c r="K3">
-        <v>32.4</v>
+        <v>276.75</v>
       </c>
       <c r="L3">
-        <v>-15</v>
+        <v>-243.428</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>-0.54600000000000004</v>
       </c>
       <c r="N3">
-        <v>778.9</v>
+        <v>900.08100000000002</v>
       </c>
       <c r="O3">
-        <v>6292.9</v>
+        <v>4416.2640000000001</v>
       </c>
       <c r="P3">
-        <v>2797.3</v>
+        <v>2601.58</v>
       </c>
       <c r="Q3">
-        <v>-33.200000000000003</v>
+        <v>-33.524000000000001</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>3107.6</v>
+        <v>1951.7809999999999</v>
       </c>
       <c r="U3">
-        <v>126.1</v>
+        <v>114.89100000000001</v>
       </c>
       <c r="V3">
-        <v>261.3</v>
+        <v>159.947</v>
       </c>
       <c r="W3">
-        <v>-47.1</v>
+        <v>-39.488999999999997</v>
       </c>
       <c r="X3">
-        <v>-61.2</v>
+        <v>9.3829999999999991</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,42 +1014,42 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>73.5</v>
+        <v>9.1989999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>51.1</v>
+        <v>37.720999999999997</v>
       </c>
       <c r="D4">
-        <v>712.5</v>
+        <v>611.84100000000001</v>
       </c>
       <c r="E4">
-        <v>199.9</v>
+        <v>154.66999999999999</v>
       </c>
       <c r="F4">
-        <v>181.8</v>
+        <v>183.71299999999999</v>
       </c>
       <c r="G4">
-        <v>877.8</v>
+        <v>552.89300000000003</v>
       </c>
       <c r="H4">
-        <v>9301.2000000000007</v>
+        <v>6112.2780000000002</v>
       </c>
       <c r="I4">
-        <v>305.8</v>
+        <v>203.89500000000001</v>
       </c>
       <c r="J4">
-        <v>2763.5</v>
+        <v>2262.1469999999999</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>384.649</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>760.1</v>
+        <v>853.03499999999997</v>
       </c>
       <c r="O4">
-        <v>6226.9</v>
+        <v>4287.6270000000004</v>
       </c>
       <c r="P4">
-        <v>2764.9</v>
+        <v>2677.8409999999999</v>
       </c>
       <c r="Q4">
-        <v>-49</v>
+        <v>-26.055</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>3074.3</v>
+        <v>1824.6510000000001</v>
       </c>
       <c r="U4">
-        <v>77.099999999999994</v>
+        <v>88.835999999999999</v>
       </c>
       <c r="V4">
-        <v>205.5</v>
+        <v>64.408000000000001</v>
       </c>
       <c r="W4">
-        <v>-47.1</v>
+        <v>-39.494999999999997</v>
       </c>
       <c r="X4">
-        <v>-146.69999999999999</v>
+        <v>-18.361000000000001</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,42 +1097,42 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>51.1</v>
+        <v>37.720999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>122</v>
+        <v>69.331000000000003</v>
       </c>
       <c r="D5">
-        <v>870.9</v>
+        <v>666.26499999999999</v>
       </c>
       <c r="E5">
-        <v>255.2</v>
+        <v>91.972999999999999</v>
       </c>
       <c r="F5">
-        <v>314.89999999999998</v>
+        <v>244.87100000000001</v>
       </c>
       <c r="G5">
-        <v>947.1</v>
+        <v>549.00900000000001</v>
       </c>
       <c r="H5">
-        <v>9481.2999999999993</v>
+        <v>6054.7250000000004</v>
       </c>
       <c r="I5">
-        <v>314.60000000000002</v>
+        <v>252.16300000000001</v>
       </c>
       <c r="J5">
-        <v>2763.6</v>
+        <v>2206.7820000000002</v>
       </c>
       <c r="K5">
-        <v>22.1</v>
+        <v>514.75199999999995</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>774.4</v>
+        <v>1055.856</v>
       </c>
       <c r="O5">
-        <v>6332.8</v>
+        <v>4336.1480000000001</v>
       </c>
       <c r="P5">
-        <v>2787.1</v>
+        <v>2732.23</v>
       </c>
       <c r="Q5">
-        <v>-31.4</v>
+        <v>3.706</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>3148.5</v>
+        <v>1718.577</v>
       </c>
       <c r="U5">
-        <v>45.7</v>
+        <v>92.542000000000002</v>
       </c>
       <c r="V5">
-        <v>145.9</v>
+        <v>252.20699999999999</v>
       </c>
       <c r="W5">
-        <v>-46.9</v>
+        <v>-39.518999999999998</v>
       </c>
       <c r="X5">
-        <v>-12</v>
+        <v>32.606000000000002</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,42 +1180,42 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>122</v>
+        <v>69.331000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>760.8</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>163.19999999999999</v>
+        <v>114.79900000000001</v>
       </c>
       <c r="F6">
-        <v>210.6</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>870.6</v>
+        <v>1108.856</v>
       </c>
       <c r="H6">
-        <v>9687.9</v>
+        <v>6237.9250000000002</v>
       </c>
       <c r="I6">
-        <v>267.8</v>
+        <v>221.82300000000001</v>
       </c>
       <c r="J6">
-        <v>2763.1</v>
+        <v>2457.9409999999998</v>
       </c>
       <c r="K6">
-        <v>102.8</v>
+        <v>207.80699999999999</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>855.2</v>
+        <v>762.37199999999996</v>
       </c>
       <c r="O6">
-        <v>6528</v>
+        <v>4162.5200000000004</v>
       </c>
       <c r="P6">
-        <v>2867.3</v>
+        <v>2676.2539999999999</v>
       </c>
       <c r="Q6">
-        <v>-34.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>4262</v>
+        <v>8585</v>
       </c>
       <c r="T6">
-        <v>3159.9</v>
+        <v>2075.4050000000002</v>
       </c>
       <c r="U6">
-        <v>11.4</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="V6">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>21.4</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,81 +1263,81 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>34.9</v>
+        <v>9.7430000000000003</v>
       </c>
       <c r="D7">
-        <v>765.7</v>
+        <v>571.43600000000004</v>
       </c>
       <c r="E7">
-        <v>154.4</v>
+        <v>138.28</v>
       </c>
       <c r="F7">
-        <v>203.9</v>
+        <v>167.334</v>
       </c>
       <c r="G7">
-        <v>780.6</v>
+        <v>622.79499999999996</v>
       </c>
       <c r="H7">
-        <v>9628.2000000000007</v>
+        <v>6422.6559999999999</v>
       </c>
       <c r="I7">
-        <v>263.89999999999998</v>
+        <v>205.89099999999999</v>
       </c>
       <c r="J7">
-        <v>2788.2</v>
+        <v>2638.9160000000002</v>
       </c>
       <c r="K7">
-        <v>57</v>
+        <v>162.756</v>
       </c>
       <c r="L7">
-        <v>-20.8</v>
+        <v>-23.768000000000001</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>-13.53</v>
       </c>
       <c r="N7">
-        <v>773.3</v>
+        <v>736.42499999999995</v>
       </c>
       <c r="O7">
-        <v>6483.8</v>
+        <v>4352.9549999999999</v>
       </c>
       <c r="P7">
-        <v>2846.6</v>
+        <v>2842.9029999999998</v>
       </c>
       <c r="Q7">
-        <v>19.5</v>
+        <v>-20.292999999999999</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>3144.4</v>
+        <v>2069.701</v>
       </c>
       <c r="U7">
-        <v>30.9</v>
+        <v>68.875</v>
       </c>
       <c r="V7">
-        <v>215</v>
+        <v>145.97300000000001</v>
       </c>
       <c r="W7">
-        <v>-49.9</v>
+        <v>-44.850999999999999</v>
       </c>
       <c r="X7">
-        <v>-60.4</v>
+        <v>-8.9860000000000007</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,42 +1346,42 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>34.9</v>
+        <v>9.7430000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>65.900000000000006</v>
+        <v>6.3150000000000004</v>
       </c>
       <c r="D8">
-        <v>690.3</v>
+        <v>544.46</v>
       </c>
       <c r="E8">
-        <v>158.5</v>
+        <v>128.29599999999999</v>
       </c>
       <c r="F8">
-        <v>214.1</v>
+        <v>156.161</v>
       </c>
       <c r="G8">
-        <v>920.4</v>
+        <v>651.56500000000005</v>
       </c>
       <c r="H8">
-        <v>9934.2000000000007</v>
+        <v>6673.26</v>
       </c>
       <c r="I8">
-        <v>337.6</v>
+        <v>237.10400000000001</v>
       </c>
       <c r="J8">
-        <v>2812.8</v>
+        <v>2637.848</v>
       </c>
       <c r="K8">
-        <v>162.80000000000001</v>
+        <v>325.654</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>957.3</v>
+        <v>938.59500000000003</v>
       </c>
       <c r="O8">
-        <v>6772.9</v>
+        <v>4681.34</v>
       </c>
       <c r="P8">
-        <v>2977</v>
+        <v>3008.011</v>
       </c>
       <c r="Q8">
-        <v>-0.1</v>
+        <v>3.2</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>3161.3</v>
+        <v>1991.92</v>
       </c>
       <c r="U8">
-        <v>30.8</v>
+        <v>73.397000000000006</v>
       </c>
       <c r="V8">
-        <v>124.2</v>
+        <v>116.357</v>
       </c>
       <c r="W8">
-        <v>-49.8</v>
+        <v>-45.04</v>
       </c>
       <c r="X8">
-        <v>62.4</v>
+        <v>36.587000000000003</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,42 +1429,42 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>65.900000000000006</v>
+        <v>6.3150000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>150.69999999999999</v>
+        <v>44.73</v>
       </c>
       <c r="D9">
-        <v>887.6</v>
+        <v>659.42700000000002</v>
       </c>
       <c r="E9">
-        <v>153.69999999999999</v>
+        <v>131.892</v>
       </c>
       <c r="F9">
-        <v>321</v>
+        <v>230.49299999999999</v>
       </c>
       <c r="G9">
-        <v>1028.5999999999999</v>
+        <v>709.875</v>
       </c>
       <c r="H9">
-        <v>10250.9</v>
+        <v>6760.2259999999997</v>
       </c>
       <c r="I9">
-        <v>418</v>
+        <v>208.45500000000001</v>
       </c>
       <c r="J9">
-        <v>2888.1</v>
+        <v>2612.0369999999998</v>
       </c>
       <c r="K9">
-        <v>70.400000000000006</v>
+        <v>479.19200000000001</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>945.5</v>
+        <v>1141.4369999999999</v>
       </c>
       <c r="O9">
-        <v>6988.1</v>
+        <v>4887.759</v>
       </c>
       <c r="P9">
-        <v>2959.9</v>
+        <v>3152.41</v>
       </c>
       <c r="Q9">
-        <v>10.3</v>
+        <v>5.13</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>3262.8</v>
+        <v>1872.4670000000001</v>
       </c>
       <c r="U9">
-        <v>41.1</v>
+        <v>85.805000000000007</v>
       </c>
       <c r="V9">
-        <v>261.10000000000002</v>
+        <v>112.395</v>
       </c>
       <c r="W9">
-        <v>-49.9</v>
+        <v>-45.365000000000002</v>
       </c>
       <c r="X9">
-        <v>-54.9</v>
+        <v>22.247</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,42 +1512,42 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>150.69999999999999</v>
+        <v>44.73</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>68.3</v>
+        <v>46.093000000000004</v>
       </c>
       <c r="D10">
-        <v>750.9</v>
+        <v>711.26700000000005</v>
       </c>
       <c r="E10">
-        <v>176.3</v>
+        <v>120.03700000000001</v>
       </c>
       <c r="F10">
-        <v>211.3</v>
+        <v>185.29900000000001</v>
       </c>
       <c r="G10">
-        <v>994.3</v>
+        <v>1655.462</v>
       </c>
       <c r="H10">
-        <v>10785.5</v>
+        <v>7814.0839999999998</v>
       </c>
       <c r="I10">
-        <v>339.3</v>
+        <v>282.85500000000002</v>
       </c>
       <c r="J10">
-        <v>3196.6</v>
+        <v>2609.8029999999999</v>
       </c>
       <c r="K10">
-        <v>217.5</v>
+        <v>364.32100000000003</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1020</v>
+        <v>1122.31</v>
       </c>
       <c r="O10">
-        <v>7503.7</v>
+        <v>5729.4059999999999</v>
       </c>
       <c r="P10">
-        <v>3415.6</v>
+        <v>3020.7150000000001</v>
       </c>
       <c r="Q10">
-        <v>-19.899999999999999</v>
+        <v>6.9359999999999999</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>4055</v>
+        <v>8970</v>
       </c>
       <c r="T10">
-        <v>3281.8</v>
+        <v>2084.6779999999999</v>
       </c>
       <c r="U10">
-        <v>21.2</v>
+        <v>62.859000000000002</v>
       </c>
       <c r="V10">
-        <v>240.8</v>
+        <v>180.613</v>
       </c>
       <c r="W10">
-        <v>-49.7</v>
+        <v>-45.731000000000002</v>
       </c>
       <c r="X10">
-        <v>377.1</v>
+        <v>22.388999999999999</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,81 +1595,81 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>68.3</v>
+        <v>46.093000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>69.900000000000006</v>
+        <v>-0.47799999999999998</v>
       </c>
       <c r="D11">
-        <v>859.6</v>
+        <v>908.23</v>
       </c>
       <c r="E11">
-        <v>172.7</v>
+        <v>169.69499999999999</v>
       </c>
       <c r="F11">
-        <v>239.4</v>
+        <v>180.89699999999999</v>
       </c>
       <c r="G11">
-        <v>870.4</v>
+        <v>1707.306</v>
       </c>
       <c r="H11">
-        <v>10733.9</v>
+        <v>7714.2430000000004</v>
       </c>
       <c r="I11">
-        <v>368.6</v>
+        <v>310.41800000000001</v>
       </c>
       <c r="J11">
-        <v>3121.9</v>
+        <v>2659.8780000000002</v>
       </c>
       <c r="K11">
-        <v>243.4</v>
+        <v>483.93700000000001</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>-18.170999999999999</v>
       </c>
       <c r="N11">
-        <v>1038.0999999999999</v>
+        <v>1324.3920000000001</v>
       </c>
       <c r="O11">
-        <v>7386.2</v>
+        <v>5610.848</v>
       </c>
       <c r="P11">
-        <v>3366.8</v>
+        <v>3200.25</v>
       </c>
       <c r="Q11">
-        <v>32.200000000000003</v>
+        <v>2.8759999999999999</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>3347.7</v>
+        <v>2103.395</v>
       </c>
       <c r="U11">
-        <v>53.4</v>
+        <v>65.734999999999999</v>
       </c>
       <c r="V11">
-        <v>198.6</v>
+        <v>166.643</v>
       </c>
       <c r="W11">
-        <v>-52.2</v>
+        <v>-23.033000000000001</v>
       </c>
       <c r="X11">
-        <v>-46.7</v>
+        <v>130.637</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,42 +1678,42 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>69.900000000000006</v>
+        <v>-0.47799999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>65.3</v>
+        <v>32.154000000000003</v>
       </c>
       <c r="D12">
-        <v>718</v>
+        <v>494.54399999999998</v>
       </c>
       <c r="E12">
-        <v>154.30000000000001</v>
+        <v>74.043999999999997</v>
       </c>
       <c r="F12">
-        <v>219.2</v>
+        <v>150.67099999999999</v>
       </c>
       <c r="G12">
-        <v>893.4</v>
+        <v>1295.0260000000001</v>
       </c>
       <c r="H12">
-        <v>10887.6</v>
+        <v>7383.5349999999999</v>
       </c>
       <c r="I12">
-        <v>391.1</v>
+        <v>247.393</v>
       </c>
       <c r="J12">
-        <v>3141.4</v>
+        <v>2388.4369999999999</v>
       </c>
       <c r="K12">
-        <v>223.1</v>
+        <v>395.50400000000002</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1072.5</v>
+        <v>1245.116</v>
       </c>
       <c r="O12">
-        <v>7525.3</v>
+        <v>5220.9660000000003</v>
       </c>
       <c r="P12">
-        <v>3366</v>
+        <v>2854.78</v>
       </c>
       <c r="Q12">
-        <v>-41.9</v>
+        <v>1.5009999999999999</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>3362.3</v>
+        <v>2162.569</v>
       </c>
       <c r="U12">
-        <v>11.5</v>
+        <v>67.236000000000004</v>
       </c>
       <c r="V12">
-        <v>224.7</v>
+        <v>54.076999999999998</v>
       </c>
       <c r="W12">
-        <v>-52</v>
+        <v>-23.132000000000001</v>
       </c>
       <c r="X12">
-        <v>-64.099999999999994</v>
+        <v>-121.28100000000001</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,42 +1761,42 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>65.3</v>
+        <v>32.154000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>157.6</v>
+        <v>103.232</v>
       </c>
       <c r="D13">
-        <v>866.6</v>
+        <v>743.64499999999998</v>
       </c>
       <c r="E13">
-        <v>142.80000000000001</v>
+        <v>267.51299999999998</v>
       </c>
       <c r="F13">
-        <v>318.39999999999998</v>
+        <v>263.50700000000001</v>
       </c>
       <c r="G13">
-        <v>880.1</v>
+        <v>1450.327</v>
       </c>
       <c r="H13">
-        <v>10981.2</v>
+        <v>7605.8680000000004</v>
       </c>
       <c r="I13">
-        <v>368.7</v>
+        <v>268.31900000000002</v>
       </c>
       <c r="J13">
-        <v>3104.8</v>
+        <v>2295.8429999999998</v>
       </c>
       <c r="K13">
-        <v>237.3</v>
+        <v>225.53700000000001</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1052.8</v>
+        <v>1141.325</v>
       </c>
       <c r="O13">
-        <v>7512.7</v>
+        <v>4995.0259999999998</v>
       </c>
       <c r="P13">
-        <v>3390.5</v>
+        <v>2714.4380000000001</v>
       </c>
       <c r="Q13">
-        <v>6.2</v>
+        <v>30.286000000000001</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>3468.5</v>
+        <v>2610.8420000000001</v>
       </c>
       <c r="U13">
-        <v>17.7</v>
+        <v>93.593000000000004</v>
       </c>
       <c r="V13">
-        <v>219.8</v>
+        <v>-22.713999999999999</v>
       </c>
       <c r="W13">
-        <v>-52</v>
+        <v>-27.533999999999999</v>
       </c>
       <c r="X13">
-        <v>-22.6</v>
+        <v>179.69200000000001</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,42 +1844,42 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>157.6</v>
+        <v>103.232</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>65.5</v>
+        <v>48.591999999999999</v>
       </c>
       <c r="D14">
-        <v>832.6</v>
+        <v>720.38099999999997</v>
       </c>
       <c r="E14">
-        <v>377.6</v>
+        <v>142.30000000000001</v>
       </c>
       <c r="F14">
-        <v>227.4</v>
+        <v>201.52500000000001</v>
       </c>
       <c r="G14">
-        <v>1011.2</v>
+        <v>988.5</v>
       </c>
       <c r="H14">
-        <v>11112.4</v>
+        <v>7797.5</v>
       </c>
       <c r="I14">
-        <v>365</v>
+        <v>296.2</v>
       </c>
       <c r="J14">
-        <v>2977.8</v>
+        <v>2123.3000000000002</v>
       </c>
       <c r="K14">
-        <v>279.39999999999998</v>
+        <v>184.1</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1433.3</v>
+        <v>858.4</v>
       </c>
       <c r="O14">
-        <v>7629.2</v>
+        <v>5130.1000000000004</v>
       </c>
       <c r="P14">
-        <v>3615.7</v>
+        <v>2376.6999999999998</v>
       </c>
       <c r="Q14">
-        <v>-7.9</v>
+        <v>148.43700000000001</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>3945</v>
+        <v>8943</v>
       </c>
       <c r="T14">
-        <v>3483.2</v>
+        <v>2667.4</v>
       </c>
       <c r="U14">
-        <v>9.8000000000000007</v>
+        <v>240.8</v>
       </c>
       <c r="V14">
-        <v>87.9</v>
+        <v>262.69400000000002</v>
       </c>
       <c r="W14">
-        <v>-52.1</v>
+        <v>-27.600999999999999</v>
       </c>
       <c r="X14">
-        <v>145.69999999999999</v>
+        <v>-190.94800000000001</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,81 +1927,81 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>65.5</v>
+        <v>48.591999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>108</v>
+        <v>34.1</v>
       </c>
       <c r="D15">
-        <v>952.8</v>
+        <v>769.7</v>
       </c>
       <c r="E15">
-        <v>184.9</v>
+        <v>263.02600000000001</v>
       </c>
       <c r="F15">
-        <v>275.8</v>
+        <v>174.1</v>
       </c>
       <c r="G15">
-        <v>936.2</v>
+        <v>807.46199999999999</v>
       </c>
       <c r="H15">
-        <v>11116.8</v>
+        <v>7766.8879999999999</v>
       </c>
       <c r="I15">
-        <v>388.1</v>
+        <v>276.62200000000001</v>
       </c>
       <c r="J15">
-        <v>2980.6</v>
+        <v>2104.9079999999999</v>
       </c>
       <c r="K15">
-        <v>221.3</v>
+        <v>194.31700000000001</v>
       </c>
       <c r="L15">
-        <v>-58.1</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>-25.8</v>
       </c>
       <c r="N15">
-        <v>1384.2</v>
+        <v>800.82399999999996</v>
       </c>
       <c r="O15">
-        <v>7583.6</v>
+        <v>5072.4709999999995</v>
       </c>
       <c r="P15">
-        <v>3560.7</v>
+        <v>2368.5709999999999</v>
       </c>
       <c r="Q15">
-        <v>4.7</v>
+        <v>-46.8</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>3533.2</v>
+        <v>2694.4169999999999</v>
       </c>
       <c r="U15">
-        <v>14.5</v>
+        <v>196.43199999999999</v>
       </c>
       <c r="V15">
-        <v>293.60000000000002</v>
+        <v>102.9</v>
       </c>
       <c r="W15">
-        <v>-56.5</v>
+        <v>-27.7</v>
       </c>
       <c r="X15">
-        <v>-112.1</v>
+        <v>-10.1</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,42 +2010,42 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>108</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>61.8</v>
+        <v>-13.1</v>
       </c>
       <c r="D16">
-        <v>750.3</v>
+        <v>599.70000000000005</v>
       </c>
       <c r="E16">
-        <v>163.4</v>
+        <v>216.15299999999999</v>
       </c>
       <c r="F16">
-        <v>223.2</v>
+        <v>186.8</v>
       </c>
       <c r="G16">
-        <v>1010.1</v>
+        <v>817.55600000000004</v>
       </c>
       <c r="H16">
-        <v>11386.6</v>
+        <v>7775.8739999999998</v>
       </c>
       <c r="I16">
-        <v>475.6</v>
+        <v>268.20600000000002</v>
       </c>
       <c r="J16">
-        <v>2829.9</v>
+        <v>2202.828</v>
       </c>
       <c r="K16">
-        <v>307.89999999999998</v>
+        <v>157.17500000000001</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,37 +2054,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1733.2</v>
+        <v>709.61599999999999</v>
       </c>
       <c r="O16">
-        <v>7847.5</v>
+        <v>5105.9849999999997</v>
       </c>
       <c r="P16">
-        <v>3646.8</v>
+        <v>2367.9499999999998</v>
       </c>
       <c r="Q16">
-        <v>1.7</v>
+        <v>-13.7</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>3539.1</v>
+        <v>2669.8890000000001</v>
       </c>
       <c r="U16">
-        <v>16.2</v>
+        <v>189.125</v>
       </c>
       <c r="V16">
-        <v>154.6</v>
+        <v>115.8</v>
       </c>
       <c r="W16">
-        <v>-56.4</v>
+        <v>-27.8</v>
       </c>
       <c r="X16">
-        <v>39.299999999999997</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,42 +2093,42 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>61.8</v>
+        <v>-13.1</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>153.30000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="D17">
-        <v>843.1</v>
+        <v>693.6</v>
       </c>
       <c r="E17">
-        <v>148.9</v>
+        <v>245.30199999999999</v>
       </c>
       <c r="F17">
-        <v>317.5</v>
+        <v>269.60000000000002</v>
       </c>
       <c r="G17">
-        <v>962.3</v>
+        <v>934.89200000000005</v>
       </c>
       <c r="H17">
-        <v>11594</v>
+        <v>7958.4560000000001</v>
       </c>
       <c r="I17">
-        <v>471.1</v>
+        <v>240.71</v>
       </c>
       <c r="J17">
-        <v>2799.5</v>
+        <v>2237.6280000000002</v>
       </c>
       <c r="K17">
-        <v>353.8</v>
+        <v>83.421999999999997</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1741.9</v>
+        <v>725.41899999999998</v>
       </c>
       <c r="O17">
-        <v>7956.7</v>
+        <v>5145.9830000000002</v>
       </c>
       <c r="P17">
-        <v>3646.1</v>
+        <v>2419.0100000000002</v>
       </c>
       <c r="Q17">
-        <v>-5.2</v>
+        <v>17.2</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>3637.3</v>
+        <v>2812.473</v>
       </c>
       <c r="U17">
-        <v>11</v>
+        <v>184.065</v>
       </c>
       <c r="V17">
-        <v>315.7</v>
+        <v>108</v>
       </c>
       <c r="W17">
-        <v>-56.4</v>
+        <v>-28.2</v>
       </c>
       <c r="X17">
-        <v>-49.5</v>
+        <v>61.9</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,42 +2176,42 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>153.30000000000001</v>
+        <v>81.8</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>60</v>
+        <v>42.7</v>
       </c>
       <c r="D18">
-        <v>804.1</v>
+        <v>742.3</v>
       </c>
       <c r="E18">
-        <v>345.7</v>
+        <v>266.10000000000002</v>
       </c>
       <c r="F18">
-        <v>216.3</v>
+        <v>194.5</v>
       </c>
       <c r="G18">
-        <v>1043.0999999999999</v>
+        <v>2142.8000000000002</v>
       </c>
       <c r="H18">
-        <v>12063.5</v>
+        <v>8275.2000000000007</v>
       </c>
       <c r="I18">
-        <v>427.9</v>
+        <v>264.2</v>
       </c>
       <c r="J18">
-        <v>3584.3</v>
+        <v>2289.4</v>
       </c>
       <c r="K18">
-        <v>141.30000000000001</v>
+        <v>122.1</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,37 +2220,37 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1214.7</v>
+        <v>1346.6</v>
       </c>
       <c r="O18">
-        <v>8423</v>
+        <v>5465.2</v>
       </c>
       <c r="P18">
-        <v>3908.6</v>
+        <v>2508</v>
       </c>
       <c r="Q18">
-        <v>45.9</v>
+        <v>66.3</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>4212</v>
+        <v>8779</v>
       </c>
       <c r="T18">
-        <v>3640.5</v>
+        <v>2810</v>
       </c>
       <c r="U18">
-        <v>56.9</v>
+        <v>202.4</v>
       </c>
       <c r="V18">
-        <v>127.7</v>
+        <v>171.5</v>
       </c>
       <c r="W18">
-        <v>-56.5</v>
+        <v>-30.3</v>
       </c>
       <c r="X18">
-        <v>195.5</v>
+        <v>75.3</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,81 +2259,81 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>60</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>96.6</v>
+        <v>2.4</v>
       </c>
       <c r="D19">
-        <v>897.4</v>
+        <v>798.8</v>
       </c>
       <c r="E19">
-        <v>361.6</v>
+        <v>280.5</v>
       </c>
       <c r="F19">
-        <v>279.60000000000002</v>
+        <v>193.9</v>
       </c>
       <c r="G19">
-        <v>913.2</v>
+        <v>858.2</v>
       </c>
       <c r="H19">
-        <v>12079.6</v>
+        <v>8131.5</v>
       </c>
       <c r="I19">
-        <v>356.9</v>
+        <v>284.10000000000002</v>
       </c>
       <c r="J19">
-        <v>3606.7</v>
+        <v>2204.5</v>
       </c>
       <c r="K19">
-        <v>41.5</v>
+        <v>114.9</v>
       </c>
       <c r="L19">
-        <v>-99.8</v>
+        <v>-19</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-107.5</v>
       </c>
       <c r="N19">
-        <v>1023.1</v>
+        <v>825.6</v>
       </c>
       <c r="O19">
-        <v>8280.7999999999993</v>
+        <v>5302.1</v>
       </c>
       <c r="P19">
-        <v>3831.2</v>
+        <v>2422.1999999999998</v>
       </c>
       <c r="Q19">
-        <v>40.700000000000003</v>
+        <v>-101.2</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>3798.8</v>
+        <v>2829.4</v>
       </c>
       <c r="U19">
-        <v>97.6</v>
+        <v>164.9</v>
       </c>
       <c r="V19">
-        <v>314.7</v>
+        <v>195.6</v>
       </c>
       <c r="W19">
-        <v>-60.7</v>
+        <v>-30.4</v>
       </c>
       <c r="X19">
-        <v>-23.1</v>
+        <v>-171</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,42 +2342,42 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>96.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>67.599999999999994</v>
+        <v>-58.7</v>
       </c>
       <c r="D20">
-        <v>717.2</v>
+        <v>699.8</v>
       </c>
       <c r="E20">
-        <v>297.3</v>
+        <v>187.6</v>
       </c>
       <c r="F20">
-        <v>235.9</v>
+        <v>191.7</v>
       </c>
       <c r="G20">
-        <v>1043.9000000000001</v>
+        <v>1077.4000000000001</v>
       </c>
       <c r="H20">
-        <v>12312.3</v>
+        <v>8080.6</v>
       </c>
       <c r="I20">
-        <v>374.9</v>
+        <v>250.6</v>
       </c>
       <c r="J20">
-        <v>3717.4</v>
+        <v>2146.5</v>
       </c>
       <c r="K20">
-        <v>120.9</v>
+        <v>130.1</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>991.5</v>
+        <v>1028.5999999999999</v>
       </c>
       <c r="O20">
-        <v>8490.6</v>
+        <v>5404.1</v>
       </c>
       <c r="P20">
-        <v>3871.8</v>
+        <v>2564.4</v>
       </c>
       <c r="Q20">
-        <v>-42.8</v>
+        <v>139.4</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>3821.7</v>
+        <v>2676.5</v>
       </c>
       <c r="U20">
-        <v>54.8</v>
+        <v>241.6</v>
       </c>
       <c r="V20">
-        <v>202.6</v>
+        <v>173.1</v>
       </c>
       <c r="W20">
-        <v>-62.2</v>
+        <v>-30.4</v>
       </c>
       <c r="X20">
-        <v>-26</v>
+        <v>67</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>30.1</v>
       </c>
       <c r="Z20">
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>67.599999999999994</v>
+        <v>-58.7</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>179.9</v>
+        <v>112.5</v>
       </c>
       <c r="D21">
-        <v>898.9</v>
+        <v>874.2</v>
       </c>
       <c r="E21">
-        <v>427.3</v>
+        <v>256.8</v>
       </c>
       <c r="F21">
-        <v>368.8</v>
+        <v>309.10000000000002</v>
       </c>
       <c r="G21">
-        <v>1087.7</v>
+        <v>1252.7</v>
       </c>
       <c r="H21">
-        <v>12558.6</v>
+        <v>7886.4</v>
       </c>
       <c r="I21">
-        <v>438.3</v>
+        <v>261.10000000000002</v>
       </c>
       <c r="J21">
-        <v>3855.8</v>
+        <v>2137.3000000000002</v>
       </c>
       <c r="K21">
-        <v>109.1</v>
+        <v>107.1</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>990.8</v>
+        <v>965.1</v>
       </c>
       <c r="O21">
-        <v>8612.5</v>
+        <v>5082.3999999999996</v>
       </c>
       <c r="P21">
-        <v>3967.9</v>
+        <v>2328.1</v>
       </c>
       <c r="Q21">
-        <v>84.4</v>
+        <v>-100.6</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>3946.1</v>
+        <v>2804</v>
       </c>
       <c r="U21">
-        <v>139.19999999999999</v>
+        <v>140</v>
       </c>
       <c r="V21">
-        <v>178</v>
+        <v>141.5</v>
       </c>
       <c r="W21">
-        <v>-62.2</v>
+        <v>-30.5</v>
       </c>
       <c r="X21">
-        <v>49.1</v>
+        <v>-279.7</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>27.8</v>
       </c>
       <c r="Z21">
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>179.9</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>34.1</v>
+        <v>-63.9</v>
       </c>
       <c r="D22">
-        <v>740.1</v>
+        <v>906.8</v>
       </c>
       <c r="E22">
-        <v>344.1</v>
+        <v>315.5</v>
       </c>
       <c r="F22">
-        <v>205.7</v>
+        <v>210.5</v>
       </c>
       <c r="G22">
-        <v>826.8</v>
+        <v>1783.4</v>
       </c>
       <c r="H22">
-        <v>12495.2</v>
+        <v>7733.1</v>
       </c>
       <c r="I22">
-        <v>402.4</v>
+        <v>355.3</v>
       </c>
       <c r="J22">
-        <v>3522.2</v>
+        <v>1914.8</v>
       </c>
       <c r="K22">
-        <v>159.80000000000001</v>
+        <v>302.10000000000002</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,120 +2552,120 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1359.3</v>
+        <v>1580.3</v>
       </c>
       <c r="O22">
-        <v>8571.1</v>
+        <v>5044.3</v>
       </c>
       <c r="P22">
-        <v>3995.4</v>
+        <v>2368.6</v>
       </c>
       <c r="Q22">
-        <v>-133.4</v>
+        <v>65.3</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>4070</v>
+        <v>5239</v>
       </c>
       <c r="T22">
-        <v>3924.1</v>
+        <v>2688.8</v>
       </c>
       <c r="U22">
-        <v>5.8</v>
+        <v>205.3</v>
       </c>
       <c r="V22">
-        <v>175.9</v>
+        <v>90</v>
       </c>
       <c r="W22">
-        <v>-62.2</v>
+        <v>-30.6</v>
       </c>
       <c r="X22">
-        <v>-3.1</v>
+        <v>75.3</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA22">
-        <v>34.1</v>
+        <v>-63.9</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>96.5</v>
+        <v>-1.6</v>
       </c>
       <c r="D23">
-        <v>843.8</v>
+        <v>930.9</v>
       </c>
       <c r="E23">
-        <v>390.6</v>
+        <v>290.8</v>
       </c>
       <c r="F23">
-        <v>274.7</v>
+        <v>213.6</v>
       </c>
       <c r="G23">
-        <v>768.5</v>
+        <v>1126.2</v>
       </c>
       <c r="H23">
-        <v>12535</v>
+        <v>6942</v>
       </c>
       <c r="I23">
-        <v>323.8</v>
+        <v>241.8</v>
       </c>
       <c r="J23">
-        <v>3522.7</v>
+        <v>1638.9</v>
       </c>
       <c r="K23">
-        <v>213.4</v>
+        <v>123.1</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>-179</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-402.8</v>
       </c>
       <c r="N23">
-        <v>1348.5</v>
+        <v>968.4</v>
       </c>
       <c r="O23">
-        <v>8570.4</v>
+        <v>4212.6000000000004</v>
       </c>
       <c r="P23">
-        <v>4049.5</v>
+        <v>1856.3</v>
       </c>
       <c r="Q23">
-        <v>-1</v>
+        <v>-154.80000000000001</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>3964.6</v>
+        <v>2729.4</v>
       </c>
       <c r="U23">
-        <v>4.8</v>
+        <v>50.5</v>
       </c>
       <c r="V23">
-        <v>228.3</v>
+        <v>56.7</v>
       </c>
       <c r="W23">
-        <v>-66.5</v>
+        <v>-33.700000000000003</v>
       </c>
       <c r="X23">
-        <v>-9.3000000000000007</v>
+        <v>-653.5</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,42 +2674,42 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>96.5</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>83.9</v>
+        <v>45.4</v>
       </c>
       <c r="D24">
-        <v>754.6</v>
+        <v>696.8</v>
       </c>
       <c r="E24">
-        <v>316.3</v>
+        <v>196.7</v>
       </c>
       <c r="F24">
-        <v>255.7</v>
+        <v>189.5</v>
       </c>
       <c r="G24">
-        <v>702.3</v>
+        <v>1052</v>
       </c>
       <c r="H24">
-        <v>12685.4</v>
+        <v>6855.8</v>
       </c>
       <c r="I24">
-        <v>353</v>
+        <v>224.1</v>
       </c>
       <c r="J24">
-        <v>3588.4</v>
+        <v>1474.3</v>
       </c>
       <c r="K24">
-        <v>220.6</v>
+        <v>84</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,37 +2718,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1373.2</v>
+        <v>1018.9</v>
       </c>
       <c r="O24">
-        <v>8695.2000000000007</v>
+        <v>4112.1000000000004</v>
       </c>
       <c r="P24">
-        <v>4123</v>
+        <v>1812.9</v>
       </c>
       <c r="Q24">
-        <v>1.7</v>
+        <v>90.5</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>3990.2</v>
+        <v>2743.7</v>
       </c>
       <c r="U24">
-        <v>6.5</v>
+        <v>141</v>
       </c>
       <c r="V24">
-        <v>281.7</v>
+        <v>166.4</v>
       </c>
       <c r="W24">
-        <v>-66.7</v>
+        <v>-33.6</v>
       </c>
       <c r="X24">
-        <v>0.8</v>
+        <v>-78.400000000000006</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,42 +2757,42 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>83.9</v>
+        <v>45.4</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>128.4</v>
+        <v>78.8</v>
       </c>
       <c r="D25">
-        <v>924.6</v>
+        <v>890.4</v>
       </c>
       <c r="E25">
-        <v>491.5</v>
+        <v>255.1</v>
       </c>
       <c r="F25">
-        <v>379</v>
+        <v>261.39999999999998</v>
       </c>
       <c r="G25">
-        <v>958.1</v>
+        <v>1120.2</v>
       </c>
       <c r="H25">
-        <v>13029.2</v>
+        <v>6953.1</v>
       </c>
       <c r="I25">
-        <v>365.1</v>
+        <v>249.2</v>
       </c>
       <c r="J25">
-        <v>3816.9</v>
+        <v>1482.7</v>
       </c>
       <c r="K25">
-        <v>238.3</v>
+        <v>106.3</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,37 +2801,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1369.7</v>
+        <v>1095.8</v>
       </c>
       <c r="O25">
-        <v>8970.1</v>
+        <v>4226.2</v>
       </c>
       <c r="P25">
-        <v>4369.2</v>
+        <v>1845.4</v>
       </c>
       <c r="Q25">
-        <v>78.2</v>
+        <v>-21.1</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>4059.1</v>
+        <v>2726.9</v>
       </c>
       <c r="U25">
-        <v>84.7</v>
+        <v>119.9</v>
       </c>
       <c r="V25">
-        <v>144</v>
+        <v>121.9</v>
       </c>
       <c r="W25">
-        <v>-66.599999999999994</v>
+        <v>-33.9</v>
       </c>
       <c r="X25">
-        <v>205.2</v>
+        <v>-66</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,42 +2840,42 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>128.4</v>
+        <v>78.8</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>62.7</v>
+        <v>193.1</v>
       </c>
       <c r="D26">
-        <v>797</v>
+        <v>841.3</v>
       </c>
       <c r="E26">
-        <v>404.3</v>
+        <v>247.9</v>
       </c>
       <c r="F26">
-        <v>227.9</v>
+        <v>198.6</v>
       </c>
       <c r="G26">
-        <v>877.1</v>
+        <v>1629.9</v>
       </c>
       <c r="H26">
-        <v>13373.8</v>
+        <v>7084.1</v>
       </c>
       <c r="I26">
-        <v>445.3</v>
+        <v>294.10000000000002</v>
       </c>
       <c r="J26">
-        <v>4315.6000000000004</v>
+        <v>1323.3</v>
       </c>
       <c r="K26">
-        <v>244.1</v>
+        <v>178.8</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,37 +2884,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1162</v>
+        <v>1147.4000000000001</v>
       </c>
       <c r="O26">
-        <v>9311.7999999999993</v>
+        <v>4184.1000000000004</v>
       </c>
       <c r="P26">
-        <v>4564.3</v>
+        <v>1696.7</v>
       </c>
       <c r="Q26">
-        <v>-76.5</v>
+        <v>135.4</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>3978</v>
+        <v>5151</v>
       </c>
       <c r="T26">
-        <v>4062</v>
+        <v>2900</v>
       </c>
       <c r="U26">
-        <v>8.1999999999999993</v>
+        <v>265.2</v>
       </c>
       <c r="V26">
-        <v>205.6</v>
+        <v>58.3</v>
       </c>
       <c r="W26">
-        <v>-66.7</v>
+        <v>-33.200000000000003</v>
       </c>
       <c r="X26">
-        <v>132.6</v>
+        <v>-21.2</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,81 +2923,81 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>62.7</v>
+        <v>193.1</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>100.4</v>
+        <v>63.9</v>
       </c>
       <c r="D27">
-        <v>853.9</v>
+        <v>912.7</v>
       </c>
       <c r="E27">
-        <v>424.9</v>
+        <v>301.89999999999998</v>
       </c>
       <c r="F27">
-        <v>280.60000000000002</v>
+        <v>214.6</v>
       </c>
       <c r="G27">
-        <v>749.8</v>
+        <v>789.6</v>
       </c>
       <c r="H27">
-        <v>13464.9</v>
+        <v>6718.9</v>
       </c>
       <c r="I27">
-        <v>369.5</v>
+        <v>292.39999999999998</v>
       </c>
       <c r="J27">
-        <v>4316.1000000000004</v>
+        <v>1295.8</v>
       </c>
       <c r="K27">
-        <v>302.8</v>
+        <v>102.2</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>-76.599999999999994</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>-62</v>
       </c>
       <c r="N27">
-        <v>1165</v>
+        <v>842.3</v>
       </c>
       <c r="O27">
-        <v>9368</v>
+        <v>3906.3</v>
       </c>
       <c r="P27">
-        <v>4623.5</v>
+        <v>1559.2</v>
       </c>
       <c r="Q27">
-        <v>1.9</v>
+        <v>-155.69999999999999</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>4096.8999999999996</v>
+        <v>2812.6</v>
       </c>
       <c r="U27">
-        <v>8.4</v>
+        <v>110.2</v>
       </c>
       <c r="V27">
-        <v>119</v>
+        <v>167.6</v>
       </c>
       <c r="W27">
-        <v>-71.5</v>
+        <v>-36.799999999999997</v>
       </c>
       <c r="X27">
-        <v>-29.9</v>
+        <v>-278.2</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,42 +3006,42 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>100.4</v>
+        <v>63.9</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>94.3</v>
+        <v>48.6</v>
       </c>
       <c r="D28">
-        <v>765.3</v>
+        <v>746.2</v>
       </c>
       <c r="E28">
-        <v>424.9</v>
+        <v>221.8</v>
       </c>
       <c r="F28">
-        <v>294.39999999999998</v>
+        <v>190</v>
       </c>
       <c r="G28">
-        <v>814.7</v>
+        <v>750.4</v>
       </c>
       <c r="H28">
-        <v>13743.4</v>
+        <v>6751.5</v>
       </c>
       <c r="I28">
-        <v>381.1</v>
+        <v>305.5</v>
       </c>
       <c r="J28">
-        <v>4354.3</v>
+        <v>1295.5</v>
       </c>
       <c r="K28">
-        <v>368.6</v>
+        <v>344.5</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1208.2</v>
+        <v>926.6</v>
       </c>
       <c r="O28">
-        <v>9493</v>
+        <v>4006.6</v>
       </c>
       <c r="P28">
-        <v>4728.1000000000004</v>
+        <v>1641.2</v>
       </c>
       <c r="Q28">
-        <v>-2.8</v>
+        <v>15</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>4250.3999999999996</v>
+        <v>2744.9</v>
       </c>
       <c r="U28">
-        <v>7.3</v>
+        <v>125.3</v>
       </c>
       <c r="V28">
-        <v>8.5</v>
+        <v>133.1</v>
       </c>
       <c r="W28">
-        <v>-71.599999999999994</v>
+        <v>-36</v>
       </c>
       <c r="X28">
-        <v>153.4</v>
+        <v>-45.4</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,42 +3089,42 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>94.3</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>168.8</v>
+        <v>119.6</v>
       </c>
       <c r="D29">
-        <v>906.9</v>
+        <v>907.3</v>
       </c>
       <c r="E29">
-        <v>336.1</v>
+        <v>337.8</v>
       </c>
       <c r="F29">
-        <v>384</v>
+        <v>295.7</v>
       </c>
       <c r="G29">
-        <v>751.5</v>
+        <v>849.9</v>
       </c>
       <c r="H29">
-        <v>14114.9</v>
+        <v>6927.2</v>
       </c>
       <c r="I29">
-        <v>478.1</v>
+        <v>298.39999999999998</v>
       </c>
       <c r="J29">
-        <v>4255.1000000000004</v>
+        <v>1593.9</v>
       </c>
       <c r="K29">
-        <v>485.3</v>
+        <v>159.80000000000001</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,37 +3133,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1470.1</v>
+        <v>754.3</v>
       </c>
       <c r="O29">
-        <v>9760.7000000000007</v>
+        <v>4167</v>
       </c>
       <c r="P29">
-        <v>4845.6000000000004</v>
+        <v>1754.9</v>
       </c>
       <c r="Q29">
-        <v>3</v>
+        <v>-17.2</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>4354.2</v>
+        <v>2760.2</v>
       </c>
       <c r="U29">
-        <v>9.1999999999999993</v>
+        <v>108.1</v>
       </c>
       <c r="V29">
-        <v>323.8</v>
+        <v>77.2</v>
       </c>
       <c r="W29">
-        <v>-72.599999999999994</v>
+        <v>-35.4</v>
       </c>
       <c r="X29">
-        <v>66.400000000000006</v>
+        <v>29.4</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,42 +3172,42 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>168.8</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>93.8</v>
+        <v>193.2</v>
       </c>
       <c r="D30">
-        <v>856.1</v>
+        <v>871.4</v>
       </c>
       <c r="E30">
-        <v>398.5</v>
+        <v>306.3</v>
       </c>
       <c r="F30">
-        <v>279.60000000000002</v>
+        <v>215.4</v>
       </c>
       <c r="G30">
-        <v>905.1</v>
+        <v>1472.3</v>
       </c>
       <c r="H30">
-        <v>14187.8</v>
+        <v>7189.7</v>
       </c>
       <c r="I30">
-        <v>477.3</v>
+        <v>346.7</v>
       </c>
       <c r="J30">
-        <v>4010.6</v>
+        <v>1404.5</v>
       </c>
       <c r="K30">
-        <v>415.2</v>
+        <v>111.3</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,37 +3216,37 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>2149</v>
+        <v>937</v>
       </c>
       <c r="O30">
-        <v>9805.6</v>
+        <v>4260.8</v>
       </c>
       <c r="P30">
-        <v>5281.5</v>
+        <v>1655.9</v>
       </c>
       <c r="Q30">
-        <v>18.7</v>
+        <v>637.5</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>3989</v>
+        <v>5179</v>
       </c>
       <c r="T30">
-        <v>4382.2</v>
+        <v>2928.9</v>
       </c>
       <c r="U30">
-        <v>27.9</v>
+        <v>745.6</v>
       </c>
       <c r="V30">
-        <v>70.3</v>
+        <v>210.9</v>
       </c>
       <c r="W30">
-        <v>-72.599999999999994</v>
+        <v>-35</v>
       </c>
       <c r="X30">
-        <v>342.7</v>
+        <v>-144</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3135,81 +3255,81 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>93.8</v>
+        <v>193.2</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>120.9</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="D31">
-        <v>916.3</v>
+        <v>992</v>
       </c>
       <c r="E31">
-        <v>343.2</v>
+        <v>403.7</v>
       </c>
       <c r="F31">
-        <v>313.10000000000002</v>
+        <v>212.8</v>
       </c>
       <c r="G31">
-        <v>725.9</v>
+        <v>1402.1</v>
       </c>
       <c r="H31">
-        <v>14241.8</v>
+        <v>7189.1</v>
       </c>
       <c r="I31">
-        <v>363.1</v>
+        <v>333.9</v>
       </c>
       <c r="J31">
-        <v>4056.8</v>
+        <v>1403.6</v>
       </c>
       <c r="K31">
-        <v>431.4</v>
+        <v>83</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>-45.2</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>2073.5</v>
+        <v>903.3</v>
       </c>
       <c r="O31">
-        <v>9810.2999999999993</v>
+        <v>4221.7</v>
       </c>
       <c r="P31">
-        <v>5343.9</v>
+        <v>1626.7</v>
       </c>
       <c r="Q31">
-        <v>-5.7</v>
+        <v>-113.2</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>4431.5</v>
+        <v>2967.4</v>
       </c>
       <c r="U31">
-        <v>19.100000000000001</v>
+        <v>632.4</v>
       </c>
       <c r="V31">
-        <v>156.30000000000001</v>
+        <v>91.6</v>
       </c>
       <c r="W31">
-        <v>-77.5</v>
+        <v>-38.6</v>
       </c>
       <c r="X31">
-        <v>-9.8000000000000007</v>
+        <v>-88.5</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,42 +3338,42 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>120.9</v>
+        <v>68.099999999999994</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>100.4</v>
+        <v>60.8</v>
       </c>
       <c r="D32">
-        <v>816.1</v>
+        <v>827.4</v>
       </c>
       <c r="E32">
-        <v>415</v>
+        <v>243.5</v>
       </c>
       <c r="F32">
-        <v>302.39999999999998</v>
+        <v>169.9</v>
       </c>
       <c r="G32">
-        <v>805.9</v>
+        <v>1376.1</v>
       </c>
       <c r="H32">
-        <v>14615</v>
+        <v>7403.9</v>
       </c>
       <c r="I32">
-        <v>431.1</v>
+        <v>355.5</v>
       </c>
       <c r="J32">
-        <v>5127.5</v>
+        <v>1403.2</v>
       </c>
       <c r="K32">
-        <v>82.5</v>
+        <v>207.1</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1257.4000000000001</v>
+        <v>1075.7</v>
       </c>
       <c r="O32">
-        <v>10064.299999999999</v>
+        <v>4413.2</v>
       </c>
       <c r="P32">
-        <v>5566.1</v>
+        <v>1748.8</v>
       </c>
       <c r="Q32">
-        <v>-16.2</v>
+        <v>-58.5</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>4550.7</v>
+        <v>2990.7</v>
       </c>
       <c r="U32">
-        <v>5</v>
+        <v>573.9</v>
       </c>
       <c r="V32">
-        <v>118.1</v>
+        <v>168.3</v>
       </c>
       <c r="W32">
-        <v>-77.3</v>
+        <v>-38.5</v>
       </c>
       <c r="X32">
-        <v>231.4</v>
+        <v>80.3</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,42 +3421,42 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>100.4</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>205.5</v>
+        <v>108.5</v>
       </c>
       <c r="D33">
-        <v>928.6</v>
+        <v>980.3</v>
       </c>
       <c r="E33">
-        <v>465.3</v>
+        <v>225.2</v>
       </c>
       <c r="F33">
-        <v>412</v>
+        <v>274.2</v>
       </c>
       <c r="G33">
-        <v>1124.8</v>
+        <v>1118.5999999999999</v>
       </c>
       <c r="H33">
-        <v>15269.8</v>
+        <v>7296.6</v>
       </c>
       <c r="I33">
-        <v>498.1</v>
+        <v>396.4</v>
       </c>
       <c r="J33">
-        <v>5248.2</v>
+        <v>1255.0999999999999</v>
       </c>
       <c r="K33">
-        <v>136.80000000000001</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,37 +3465,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1548.3</v>
+        <v>1050</v>
       </c>
       <c r="O33">
-        <v>10499.4</v>
+        <v>4237.6000000000004</v>
       </c>
       <c r="P33">
-        <v>5891.1</v>
+        <v>1609.8</v>
       </c>
       <c r="Q33">
-        <v>235.8</v>
+        <v>-194.5</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>4770.3999999999996</v>
+        <v>3059</v>
       </c>
       <c r="U33">
-        <v>239.7</v>
+        <v>379.4</v>
       </c>
       <c r="V33">
-        <v>167.8</v>
+        <v>155.4</v>
       </c>
       <c r="W33">
-        <v>-78.5</v>
+        <v>-38.6</v>
       </c>
       <c r="X33">
-        <v>365.8</v>
+        <v>-164.6</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,42 +3504,42 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>205.5</v>
+        <v>108.5</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>85.3</v>
+        <v>50.6</v>
       </c>
       <c r="D34">
-        <v>873.5</v>
+        <v>882</v>
       </c>
       <c r="E34">
-        <v>274.10000000000002</v>
+        <v>420.1</v>
       </c>
       <c r="F34">
-        <v>278.2</v>
+        <v>157.4</v>
       </c>
       <c r="G34">
-        <v>785.1</v>
+        <v>1445.6</v>
       </c>
       <c r="H34">
-        <v>15426</v>
+        <v>8201.5</v>
       </c>
       <c r="I34">
-        <v>543.29999999999995</v>
+        <v>425.1</v>
       </c>
       <c r="J34">
-        <v>5246.3</v>
+        <v>1808.3</v>
       </c>
       <c r="K34">
-        <v>441.2</v>
+        <v>86.1</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,37 +3548,37 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1644.1</v>
+        <v>1038.2</v>
       </c>
       <c r="O34">
-        <v>10640.3</v>
+        <v>5192.1000000000004</v>
       </c>
       <c r="P34">
-        <v>5944</v>
+        <v>2030.8</v>
       </c>
       <c r="Q34">
-        <v>-222.3</v>
+        <v>-32.5</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>3885</v>
+        <v>5318</v>
       </c>
       <c r="T34">
-        <v>4785.7</v>
+        <v>3009.4</v>
       </c>
       <c r="U34">
-        <v>20.9</v>
+        <v>346.9</v>
       </c>
       <c r="V34">
-        <v>85.5</v>
+        <v>-77.099999999999994</v>
       </c>
       <c r="W34">
-        <v>-78.900000000000006</v>
+        <v>-38.6</v>
       </c>
       <c r="X34">
-        <v>-56.7</v>
+        <v>302</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3467,125 +3587,125 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>85.3</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>125.1</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="D35">
-        <v>987.2</v>
+        <v>948.8</v>
       </c>
       <c r="E35">
-        <v>417.9</v>
+        <v>266</v>
       </c>
       <c r="F35">
-        <v>343</v>
+        <v>164</v>
       </c>
       <c r="G35">
-        <v>815.2</v>
+        <v>1230.9000000000001</v>
       </c>
       <c r="H35">
-        <v>15713.4</v>
+        <v>8239.4</v>
       </c>
       <c r="I35">
-        <v>387.7</v>
+        <v>359.8</v>
       </c>
       <c r="J35">
-        <v>5362.2</v>
+        <v>1708.5</v>
       </c>
       <c r="K35">
-        <v>514.70000000000005</v>
+        <v>100.8</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>1587.7</v>
+        <v>1052.5999999999999</v>
       </c>
       <c r="O35">
-        <v>10831</v>
+        <v>5197.1000000000004</v>
       </c>
       <c r="P35">
-        <v>6151.4</v>
+        <v>2045.7</v>
       </c>
       <c r="Q35">
-        <v>-7.7</v>
+        <v>-63.2</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>4882.3999999999996</v>
+        <v>3042.3</v>
       </c>
       <c r="U35">
-        <v>10.1</v>
+        <v>283.7</v>
       </c>
       <c r="V35">
-        <v>181.1</v>
+        <v>267.60000000000002</v>
       </c>
       <c r="W35">
-        <v>-83.7</v>
+        <v>-41.4</v>
       </c>
       <c r="X35">
-        <v>176</v>
+        <v>-19.399999999999999</v>
       </c>
       <c r="Y35">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>125.1</v>
+        <v>72.599999999999994</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>94.6</v>
+        <v>29.1</v>
       </c>
       <c r="D36">
-        <v>790.2</v>
+        <v>740.8</v>
       </c>
       <c r="E36">
-        <v>421.5</v>
+        <v>209.2</v>
       </c>
       <c r="F36">
-        <v>320.3</v>
+        <v>154.1</v>
       </c>
       <c r="G36">
-        <v>1027.3</v>
+        <v>1137.9000000000001</v>
       </c>
       <c r="H36">
-        <v>16121.6</v>
+        <v>8335.2999999999993</v>
       </c>
       <c r="I36">
-        <v>422.5</v>
+        <v>314.89999999999998</v>
       </c>
       <c r="J36">
-        <v>5438.1</v>
+        <v>1708.2</v>
       </c>
       <c r="K36">
-        <v>390.5</v>
+        <v>237.5</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1949</v>
+        <v>1146.5999999999999</v>
       </c>
       <c r="O36">
-        <v>11222</v>
+        <v>5305.1</v>
       </c>
       <c r="P36">
-        <v>6552.4</v>
+        <v>2182.1999999999998</v>
       </c>
       <c r="Q36">
-        <v>156.4</v>
+        <v>-37.5</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>4899.6000000000004</v>
+        <v>3030.2</v>
       </c>
       <c r="U36">
-        <v>170.2</v>
+        <v>246.2</v>
       </c>
       <c r="V36">
-        <v>95.8</v>
+        <v>172.3</v>
       </c>
       <c r="W36">
-        <v>-84.1</v>
+        <v>-41.3</v>
       </c>
       <c r="X36">
-        <v>302.8</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="Y36">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>94.6</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>226.3</v>
+        <v>-44.3</v>
       </c>
       <c r="D37">
-        <v>990</v>
+        <v>884</v>
       </c>
       <c r="E37">
-        <v>451.5</v>
+        <v>302</v>
       </c>
       <c r="F37">
-        <v>461</v>
+        <v>253.8</v>
       </c>
       <c r="G37">
-        <v>1113</v>
+        <v>1234.4000000000001</v>
       </c>
       <c r="H37">
-        <v>16533.400000000001</v>
+        <v>8755.7000000000007</v>
       </c>
       <c r="I37">
-        <v>497.7</v>
+        <v>328.1</v>
       </c>
       <c r="J37">
-        <v>5535.1</v>
+        <v>2215.9</v>
       </c>
       <c r="K37">
-        <v>349.6</v>
+        <v>170</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>2082.1</v>
+        <v>992.8</v>
       </c>
       <c r="O37">
-        <v>11364.2</v>
+        <v>5810.1</v>
       </c>
       <c r="P37">
-        <v>6558.5</v>
+        <v>2487.4</v>
       </c>
       <c r="Q37">
-        <v>25.3</v>
+        <v>-69.5</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>5169.2</v>
+        <v>2945.6</v>
       </c>
       <c r="U37">
-        <v>193.7</v>
+        <v>176.7</v>
       </c>
       <c r="V37">
-        <v>232.1</v>
+        <v>150.6</v>
       </c>
       <c r="W37">
-        <v>-85.2</v>
+        <v>-41.4</v>
       </c>
       <c r="X37">
-        <v>47.2</v>
+        <v>74.8</v>
       </c>
       <c r="Y37">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>226</v>
+        <v>-44.3</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>111</v>
+        <v>53.6</v>
       </c>
       <c r="D38">
-        <v>880</v>
+        <v>853.7</v>
       </c>
       <c r="E38">
-        <v>355</v>
+        <v>415.9</v>
       </c>
       <c r="F38">
-        <v>331</v>
+        <v>198</v>
       </c>
       <c r="G38">
-        <v>876</v>
+        <v>1390</v>
       </c>
       <c r="H38">
-        <v>16701</v>
+        <v>9036</v>
       </c>
       <c r="I38">
-        <v>422</v>
+        <v>331.9</v>
       </c>
       <c r="J38">
-        <v>5533</v>
+        <v>2464.5</v>
       </c>
       <c r="K38">
-        <v>337</v>
+        <v>190</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,120 +3880,120 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2054</v>
+        <v>1076.5999999999999</v>
       </c>
       <c r="O38">
-        <v>11296</v>
+        <v>6077.5</v>
       </c>
       <c r="P38">
-        <v>6543</v>
+        <v>2756</v>
       </c>
       <c r="Q38">
-        <v>-182</v>
+        <v>-1.4</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>3597</v>
+        <v>4957</v>
       </c>
       <c r="T38">
-        <v>5405</v>
+        <v>2958.5</v>
       </c>
       <c r="U38">
-        <v>16</v>
+        <v>175.3</v>
       </c>
       <c r="V38">
-        <v>151</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="W38">
-        <v>-84</v>
+        <v>-41.4</v>
       </c>
       <c r="X38">
-        <v>93</v>
+        <v>197.7</v>
       </c>
       <c r="Y38">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>111</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>170</v>
+        <v>43.4</v>
       </c>
       <c r="D39">
-        <v>915.7</v>
+        <v>890.2</v>
       </c>
       <c r="E39">
-        <v>348.7</v>
+        <v>383</v>
       </c>
       <c r="F39">
-        <v>362.2</v>
+        <v>209.1</v>
       </c>
       <c r="G39">
-        <v>912.2</v>
+        <v>1264.5</v>
       </c>
       <c r="H39">
-        <v>16879</v>
+        <v>9075.4</v>
       </c>
       <c r="I39">
-        <v>375.4</v>
+        <v>259.8</v>
       </c>
       <c r="J39">
-        <v>5833.9</v>
+        <v>2264.6999999999998</v>
       </c>
       <c r="K39">
-        <v>270.5</v>
+        <v>350.3</v>
       </c>
       <c r="L39">
-        <v>-66.900000000000006</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>-300.3</v>
+        <v>-100</v>
       </c>
       <c r="N39">
-        <v>1650.2</v>
+        <v>1255.5</v>
       </c>
       <c r="O39">
-        <v>11176.6</v>
+        <v>6115.3</v>
       </c>
       <c r="P39">
-        <v>6461.6</v>
+        <v>2816.5</v>
       </c>
       <c r="Q39">
-        <v>40.9</v>
+        <v>-35.1</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>5702.4</v>
+        <v>2960.1</v>
       </c>
       <c r="U39">
-        <v>55.2</v>
+        <v>140.19999999999999</v>
       </c>
       <c r="V39">
-        <v>160.19999999999999</v>
+        <v>189.2</v>
       </c>
       <c r="W39">
-        <v>-93</v>
+        <v>-43.6</v>
       </c>
       <c r="X39">
-        <v>60.3</v>
+        <v>7.9</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -3882,42 +4002,42 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>170</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>134.4</v>
+        <v>47.8</v>
       </c>
       <c r="D40">
-        <v>763.1</v>
+        <v>741.6</v>
       </c>
       <c r="E40">
-        <v>345</v>
+        <v>187.8</v>
       </c>
       <c r="F40">
-        <v>347.3</v>
+        <v>200.8</v>
       </c>
       <c r="G40">
-        <v>1044.3</v>
+        <v>1154.0999999999999</v>
       </c>
       <c r="H40">
-        <v>17269.7</v>
+        <v>9043.6</v>
       </c>
       <c r="I40">
-        <v>429.9</v>
+        <v>289.89999999999998</v>
       </c>
       <c r="J40">
-        <v>6572.4</v>
+        <v>2563.6</v>
       </c>
       <c r="K40">
-        <v>185.4</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,37 +4046,37 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1220.9000000000001</v>
+        <v>894.1</v>
       </c>
       <c r="O40">
-        <v>11521.4</v>
+        <v>6078.6</v>
       </c>
       <c r="P40">
-        <v>6765.2</v>
+        <v>2765</v>
       </c>
       <c r="Q40">
-        <v>150.80000000000001</v>
+        <v>30.9</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>5748.3</v>
+        <v>2965</v>
       </c>
       <c r="U40">
-        <v>208.1</v>
+        <v>171.1</v>
       </c>
       <c r="V40">
-        <v>159.5</v>
+        <v>290</v>
       </c>
       <c r="W40">
-        <v>-94.6</v>
+        <v>-43.6</v>
       </c>
       <c r="X40">
-        <v>204</v>
+        <v>-95.7</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -3965,42 +4085,42 @@
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>134.4</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>245.6</v>
+        <v>149.1</v>
       </c>
       <c r="D41">
-        <v>920</v>
+        <v>951.7</v>
       </c>
       <c r="E41">
-        <v>345</v>
+        <v>198.7</v>
       </c>
       <c r="F41">
-        <v>455</v>
+        <v>346.2</v>
       </c>
       <c r="G41">
-        <v>1033</v>
+        <v>1167.5999999999999</v>
       </c>
       <c r="H41">
-        <v>17540</v>
+        <v>9225.7999999999993</v>
       </c>
       <c r="I41">
-        <v>417</v>
+        <v>295.10000000000002</v>
       </c>
       <c r="J41">
-        <v>6574</v>
+        <v>2763.8</v>
       </c>
       <c r="K41">
-        <v>422</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,37 +4129,37 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1295</v>
+        <v>691.9</v>
       </c>
       <c r="O41">
-        <v>11631</v>
+        <v>6152.2</v>
       </c>
       <c r="P41">
-        <v>7003</v>
+        <v>2765.2</v>
       </c>
       <c r="Q41">
-        <v>-15.7</v>
+        <v>-34.1</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>5909</v>
+        <v>3073.6</v>
       </c>
       <c r="U41">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="V41">
-        <v>116.3</v>
+        <v>216.4</v>
       </c>
       <c r="W41">
-        <v>-93.4</v>
+        <v>-43.7</v>
       </c>
       <c r="X41">
-        <v>154.69999999999999</v>
+        <v>-39.6</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -4048,89 +4168,3409 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>246</v>
+        <v>149.1</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>47.3</v>
+      </c>
+      <c r="D42">
+        <v>832.6</v>
+      </c>
+      <c r="E42">
+        <v>202.8</v>
+      </c>
+      <c r="F42">
+        <v>192.9</v>
+      </c>
+      <c r="G42">
+        <v>1092.7</v>
+      </c>
+      <c r="H42">
+        <v>9282.9</v>
+      </c>
+      <c r="I42">
+        <v>336.3</v>
+      </c>
+      <c r="J42">
+        <v>2763.4</v>
+      </c>
+      <c r="K42">
+        <v>47.4</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>866.7</v>
+      </c>
+      <c r="O42">
+        <v>6203.5</v>
+      </c>
+      <c r="P42">
+        <v>2812.1</v>
+      </c>
+      <c r="Q42">
+        <v>22.3</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>4704</v>
+      </c>
+      <c r="T42">
+        <v>3079.4</v>
+      </c>
+      <c r="U42">
+        <v>159.30000000000001</v>
+      </c>
+      <c r="V42">
+        <v>289.3</v>
+      </c>
+      <c r="W42">
+        <v>-43.7</v>
+      </c>
+      <c r="X42">
+        <v>-7</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>73.5</v>
+      </c>
+      <c r="D43">
+        <v>877.2</v>
+      </c>
+      <c r="E43">
+        <v>211.1</v>
+      </c>
+      <c r="F43">
+        <v>235.2</v>
+      </c>
+      <c r="G43">
+        <v>977</v>
+      </c>
+      <c r="H43">
+        <v>9400.5</v>
+      </c>
+      <c r="I43">
+        <v>300.2</v>
+      </c>
+      <c r="J43">
+        <v>2763.6</v>
+      </c>
+      <c r="K43">
+        <v>32.4</v>
+      </c>
+      <c r="L43">
+        <v>-15</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>778.9</v>
+      </c>
+      <c r="O43">
+        <v>6292.9</v>
+      </c>
+      <c r="P43">
+        <v>2797.3</v>
+      </c>
+      <c r="Q43">
+        <v>-33.200000000000003</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>3107.6</v>
+      </c>
+      <c r="U43">
+        <v>126.1</v>
+      </c>
+      <c r="V43">
+        <v>261.3</v>
+      </c>
+      <c r="W43">
+        <v>-47.1</v>
+      </c>
+      <c r="X43">
+        <v>-61.2</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>51.1</v>
+      </c>
+      <c r="D44">
+        <v>712.5</v>
+      </c>
+      <c r="E44">
+        <v>199.9</v>
+      </c>
+      <c r="F44">
+        <v>181.8</v>
+      </c>
+      <c r="G44">
+        <v>877.8</v>
+      </c>
+      <c r="H44">
+        <v>9301.2000000000007</v>
+      </c>
+      <c r="I44">
+        <v>305.8</v>
+      </c>
+      <c r="J44">
+        <v>2763.5</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>760.1</v>
+      </c>
+      <c r="O44">
+        <v>6226.9</v>
+      </c>
+      <c r="P44">
+        <v>2764.9</v>
+      </c>
+      <c r="Q44">
+        <v>-49</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>3074.3</v>
+      </c>
+      <c r="U44">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="V44">
+        <v>205.5</v>
+      </c>
+      <c r="W44">
+        <v>-47.1</v>
+      </c>
+      <c r="X44">
+        <v>-146.69999999999999</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>51.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>122</v>
+      </c>
+      <c r="D45">
+        <v>870.9</v>
+      </c>
+      <c r="E45">
+        <v>255.2</v>
+      </c>
+      <c r="F45">
+        <v>314.89999999999998</v>
+      </c>
+      <c r="G45">
+        <v>947.1</v>
+      </c>
+      <c r="H45">
+        <v>9481.2999999999993</v>
+      </c>
+      <c r="I45">
+        <v>314.60000000000002</v>
+      </c>
+      <c r="J45">
+        <v>2763.6</v>
+      </c>
+      <c r="K45">
+        <v>22.1</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>774.4</v>
+      </c>
+      <c r="O45">
+        <v>6332.8</v>
+      </c>
+      <c r="P45">
+        <v>2787.1</v>
+      </c>
+      <c r="Q45">
+        <v>-31.4</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>3148.5</v>
+      </c>
+      <c r="U45">
+        <v>45.7</v>
+      </c>
+      <c r="V45">
+        <v>145.9</v>
+      </c>
+      <c r="W45">
+        <v>-46.9</v>
+      </c>
+      <c r="X45">
+        <v>-12</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>57</v>
+      </c>
+      <c r="D46">
+        <v>760.8</v>
+      </c>
+      <c r="E46">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="F46">
+        <v>210.6</v>
+      </c>
+      <c r="G46">
+        <v>870.6</v>
+      </c>
+      <c r="H46">
+        <v>9687.9</v>
+      </c>
+      <c r="I46">
+        <v>267.8</v>
+      </c>
+      <c r="J46">
+        <v>2763.1</v>
+      </c>
+      <c r="K46">
+        <v>102.8</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>855.2</v>
+      </c>
+      <c r="O46">
+        <v>6528</v>
+      </c>
+      <c r="P46">
+        <v>2867.3</v>
+      </c>
+      <c r="Q46">
+        <v>-34.299999999999997</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>4262</v>
+      </c>
+      <c r="T46">
+        <v>3159.9</v>
+      </c>
+      <c r="U46">
+        <v>11.4</v>
+      </c>
+      <c r="V46">
+        <v>90</v>
+      </c>
+      <c r="W46">
+        <v>-47</v>
+      </c>
+      <c r="X46">
+        <v>21.4</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>34.9</v>
+      </c>
+      <c r="D47">
+        <v>765.7</v>
+      </c>
+      <c r="E47">
+        <v>154.4</v>
+      </c>
+      <c r="F47">
+        <v>203.9</v>
+      </c>
+      <c r="G47">
+        <v>780.6</v>
+      </c>
+      <c r="H47">
+        <v>9628.2000000000007</v>
+      </c>
+      <c r="I47">
+        <v>263.89999999999998</v>
+      </c>
+      <c r="J47">
+        <v>2788.2</v>
+      </c>
+      <c r="K47">
+        <v>57</v>
+      </c>
+      <c r="L47">
+        <v>-20.8</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>773.3</v>
+      </c>
+      <c r="O47">
+        <v>6483.8</v>
+      </c>
+      <c r="P47">
+        <v>2846.6</v>
+      </c>
+      <c r="Q47">
+        <v>19.5</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>3144.4</v>
+      </c>
+      <c r="U47">
+        <v>30.9</v>
+      </c>
+      <c r="V47">
+        <v>215</v>
+      </c>
+      <c r="W47">
+        <v>-49.9</v>
+      </c>
+      <c r="X47">
+        <v>-60.4</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="D48">
+        <v>690.3</v>
+      </c>
+      <c r="E48">
+        <v>158.5</v>
+      </c>
+      <c r="F48">
+        <v>214.1</v>
+      </c>
+      <c r="G48">
+        <v>920.4</v>
+      </c>
+      <c r="H48">
+        <v>9934.2000000000007</v>
+      </c>
+      <c r="I48">
+        <v>337.6</v>
+      </c>
+      <c r="J48">
+        <v>2812.8</v>
+      </c>
+      <c r="K48">
+        <v>162.80000000000001</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>957.3</v>
+      </c>
+      <c r="O48">
+        <v>6772.9</v>
+      </c>
+      <c r="P48">
+        <v>2977</v>
+      </c>
+      <c r="Q48">
+        <v>-0.1</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>3161.3</v>
+      </c>
+      <c r="U48">
+        <v>30.8</v>
+      </c>
+      <c r="V48">
+        <v>124.2</v>
+      </c>
+      <c r="W48">
+        <v>-49.8</v>
+      </c>
+      <c r="X48">
+        <v>62.4</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>150.69999999999999</v>
+      </c>
+      <c r="D49">
+        <v>887.6</v>
+      </c>
+      <c r="E49">
+        <v>153.69999999999999</v>
+      </c>
+      <c r="F49">
+        <v>321</v>
+      </c>
+      <c r="G49">
+        <v>1028.5999999999999</v>
+      </c>
+      <c r="H49">
+        <v>10250.9</v>
+      </c>
+      <c r="I49">
+        <v>418</v>
+      </c>
+      <c r="J49">
+        <v>2888.1</v>
+      </c>
+      <c r="K49">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>945.5</v>
+      </c>
+      <c r="O49">
+        <v>6988.1</v>
+      </c>
+      <c r="P49">
+        <v>2959.9</v>
+      </c>
+      <c r="Q49">
+        <v>10.3</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>3262.8</v>
+      </c>
+      <c r="U49">
+        <v>41.1</v>
+      </c>
+      <c r="V49">
+        <v>261.10000000000002</v>
+      </c>
+      <c r="W49">
+        <v>-49.9</v>
+      </c>
+      <c r="X49">
+        <v>-54.9</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>150.69999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>68.3</v>
+      </c>
+      <c r="D50">
+        <v>750.9</v>
+      </c>
+      <c r="E50">
+        <v>176.3</v>
+      </c>
+      <c r="F50">
+        <v>211.3</v>
+      </c>
+      <c r="G50">
+        <v>994.3</v>
+      </c>
+      <c r="H50">
+        <v>10785.5</v>
+      </c>
+      <c r="I50">
+        <v>339.3</v>
+      </c>
+      <c r="J50">
+        <v>3196.6</v>
+      </c>
+      <c r="K50">
+        <v>217.5</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1020</v>
+      </c>
+      <c r="O50">
+        <v>7503.7</v>
+      </c>
+      <c r="P50">
+        <v>3415.6</v>
+      </c>
+      <c r="Q50">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>4055</v>
+      </c>
+      <c r="T50">
+        <v>3281.8</v>
+      </c>
+      <c r="U50">
+        <v>21.2</v>
+      </c>
+      <c r="V50">
+        <v>240.8</v>
+      </c>
+      <c r="W50">
+        <v>-49.7</v>
+      </c>
+      <c r="X50">
+        <v>377.1</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>68.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="D51">
+        <v>859.6</v>
+      </c>
+      <c r="E51">
+        <v>172.7</v>
+      </c>
+      <c r="F51">
+        <v>239.4</v>
+      </c>
+      <c r="G51">
+        <v>870.4</v>
+      </c>
+      <c r="H51">
+        <v>10733.9</v>
+      </c>
+      <c r="I51">
+        <v>368.6</v>
+      </c>
+      <c r="J51">
+        <v>3121.9</v>
+      </c>
+      <c r="K51">
+        <v>243.4</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1038.0999999999999</v>
+      </c>
+      <c r="O51">
+        <v>7386.2</v>
+      </c>
+      <c r="P51">
+        <v>3366.8</v>
+      </c>
+      <c r="Q51">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>3347.7</v>
+      </c>
+      <c r="U51">
+        <v>53.4</v>
+      </c>
+      <c r="V51">
+        <v>198.6</v>
+      </c>
+      <c r="W51">
+        <v>-52.2</v>
+      </c>
+      <c r="X51">
+        <v>-46.7</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>65.3</v>
+      </c>
+      <c r="D52">
+        <v>718</v>
+      </c>
+      <c r="E52">
+        <v>154.30000000000001</v>
+      </c>
+      <c r="F52">
+        <v>219.2</v>
+      </c>
+      <c r="G52">
+        <v>893.4</v>
+      </c>
+      <c r="H52">
+        <v>10887.6</v>
+      </c>
+      <c r="I52">
+        <v>391.1</v>
+      </c>
+      <c r="J52">
+        <v>3141.4</v>
+      </c>
+      <c r="K52">
+        <v>223.1</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1072.5</v>
+      </c>
+      <c r="O52">
+        <v>7525.3</v>
+      </c>
+      <c r="P52">
+        <v>3366</v>
+      </c>
+      <c r="Q52">
+        <v>-41.9</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>3362.3</v>
+      </c>
+      <c r="U52">
+        <v>11.5</v>
+      </c>
+      <c r="V52">
+        <v>224.7</v>
+      </c>
+      <c r="W52">
+        <v>-52</v>
+      </c>
+      <c r="X52">
+        <v>-64.099999999999994</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>65.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>157.6</v>
+      </c>
+      <c r="D53">
+        <v>866.6</v>
+      </c>
+      <c r="E53">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="F53">
+        <v>318.39999999999998</v>
+      </c>
+      <c r="G53">
+        <v>880.1</v>
+      </c>
+      <c r="H53">
+        <v>10981.2</v>
+      </c>
+      <c r="I53">
+        <v>368.7</v>
+      </c>
+      <c r="J53">
+        <v>3104.8</v>
+      </c>
+      <c r="K53">
+        <v>237.3</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1052.8</v>
+      </c>
+      <c r="O53">
+        <v>7512.7</v>
+      </c>
+      <c r="P53">
+        <v>3390.5</v>
+      </c>
+      <c r="Q53">
+        <v>6.2</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>3468.5</v>
+      </c>
+      <c r="U53">
+        <v>17.7</v>
+      </c>
+      <c r="V53">
+        <v>219.8</v>
+      </c>
+      <c r="W53">
+        <v>-52</v>
+      </c>
+      <c r="X53">
+        <v>-22.6</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>157.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>65.5</v>
+      </c>
+      <c r="D54">
+        <v>832.6</v>
+      </c>
+      <c r="E54">
+        <v>377.6</v>
+      </c>
+      <c r="F54">
+        <v>227.4</v>
+      </c>
+      <c r="G54">
+        <v>1011.2</v>
+      </c>
+      <c r="H54">
+        <v>11112.4</v>
+      </c>
+      <c r="I54">
+        <v>365</v>
+      </c>
+      <c r="J54">
+        <v>2977.8</v>
+      </c>
+      <c r="K54">
+        <v>279.39999999999998</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1433.3</v>
+      </c>
+      <c r="O54">
+        <v>7629.2</v>
+      </c>
+      <c r="P54">
+        <v>3615.7</v>
+      </c>
+      <c r="Q54">
+        <v>-7.9</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>3945</v>
+      </c>
+      <c r="T54">
+        <v>3483.2</v>
+      </c>
+      <c r="U54">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="V54">
+        <v>87.9</v>
+      </c>
+      <c r="W54">
+        <v>-52.1</v>
+      </c>
+      <c r="X54">
+        <v>145.69999999999999</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>108</v>
+      </c>
+      <c r="D55">
+        <v>952.8</v>
+      </c>
+      <c r="E55">
+        <v>184.9</v>
+      </c>
+      <c r="F55">
+        <v>275.8</v>
+      </c>
+      <c r="G55">
+        <v>936.2</v>
+      </c>
+      <c r="H55">
+        <v>11116.8</v>
+      </c>
+      <c r="I55">
+        <v>388.1</v>
+      </c>
+      <c r="J55">
+        <v>2980.6</v>
+      </c>
+      <c r="K55">
+        <v>221.3</v>
+      </c>
+      <c r="L55">
+        <v>-58.1</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1384.2</v>
+      </c>
+      <c r="O55">
+        <v>7583.6</v>
+      </c>
+      <c r="P55">
+        <v>3560.7</v>
+      </c>
+      <c r="Q55">
+        <v>4.7</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>3533.2</v>
+      </c>
+      <c r="U55">
+        <v>14.5</v>
+      </c>
+      <c r="V55">
+        <v>293.60000000000002</v>
+      </c>
+      <c r="W55">
+        <v>-56.5</v>
+      </c>
+      <c r="X55">
+        <v>-112.1</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>61.8</v>
+      </c>
+      <c r="D56">
+        <v>750.3</v>
+      </c>
+      <c r="E56">
+        <v>163.4</v>
+      </c>
+      <c r="F56">
+        <v>223.2</v>
+      </c>
+      <c r="G56">
+        <v>1010.1</v>
+      </c>
+      <c r="H56">
+        <v>11386.6</v>
+      </c>
+      <c r="I56">
+        <v>475.6</v>
+      </c>
+      <c r="J56">
+        <v>2829.9</v>
+      </c>
+      <c r="K56">
+        <v>307.89999999999998</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1733.2</v>
+      </c>
+      <c r="O56">
+        <v>7847.5</v>
+      </c>
+      <c r="P56">
+        <v>3646.8</v>
+      </c>
+      <c r="Q56">
+        <v>1.7</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>3539.1</v>
+      </c>
+      <c r="U56">
+        <v>16.2</v>
+      </c>
+      <c r="V56">
+        <v>154.6</v>
+      </c>
+      <c r="W56">
+        <v>-56.4</v>
+      </c>
+      <c r="X56">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>153.30000000000001</v>
+      </c>
+      <c r="D57">
+        <v>843.1</v>
+      </c>
+      <c r="E57">
+        <v>148.9</v>
+      </c>
+      <c r="F57">
+        <v>317.5</v>
+      </c>
+      <c r="G57">
+        <v>962.3</v>
+      </c>
+      <c r="H57">
+        <v>11594</v>
+      </c>
+      <c r="I57">
+        <v>471.1</v>
+      </c>
+      <c r="J57">
+        <v>2799.5</v>
+      </c>
+      <c r="K57">
+        <v>353.8</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1741.9</v>
+      </c>
+      <c r="O57">
+        <v>7956.7</v>
+      </c>
+      <c r="P57">
+        <v>3646.1</v>
+      </c>
+      <c r="Q57">
+        <v>-5.2</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>3637.3</v>
+      </c>
+      <c r="U57">
+        <v>11</v>
+      </c>
+      <c r="V57">
+        <v>315.7</v>
+      </c>
+      <c r="W57">
+        <v>-56.4</v>
+      </c>
+      <c r="X57">
+        <v>-49.5</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>153.30000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>60</v>
+      </c>
+      <c r="D58">
+        <v>804.1</v>
+      </c>
+      <c r="E58">
+        <v>345.7</v>
+      </c>
+      <c r="F58">
+        <v>216.3</v>
+      </c>
+      <c r="G58">
+        <v>1043.0999999999999</v>
+      </c>
+      <c r="H58">
+        <v>12063.5</v>
+      </c>
+      <c r="I58">
+        <v>427.9</v>
+      </c>
+      <c r="J58">
+        <v>3584.3</v>
+      </c>
+      <c r="K58">
+        <v>141.30000000000001</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1214.7</v>
+      </c>
+      <c r="O58">
+        <v>8423</v>
+      </c>
+      <c r="P58">
+        <v>3908.6</v>
+      </c>
+      <c r="Q58">
+        <v>45.9</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>4212</v>
+      </c>
+      <c r="T58">
+        <v>3640.5</v>
+      </c>
+      <c r="U58">
+        <v>56.9</v>
+      </c>
+      <c r="V58">
+        <v>127.7</v>
+      </c>
+      <c r="W58">
+        <v>-56.5</v>
+      </c>
+      <c r="X58">
+        <v>195.5</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>96.6</v>
+      </c>
+      <c r="D59">
+        <v>897.4</v>
+      </c>
+      <c r="E59">
+        <v>361.6</v>
+      </c>
+      <c r="F59">
+        <v>279.60000000000002</v>
+      </c>
+      <c r="G59">
+        <v>913.2</v>
+      </c>
+      <c r="H59">
+        <v>12079.6</v>
+      </c>
+      <c r="I59">
+        <v>356.9</v>
+      </c>
+      <c r="J59">
+        <v>3606.7</v>
+      </c>
+      <c r="K59">
+        <v>41.5</v>
+      </c>
+      <c r="L59">
+        <v>-99.8</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1023.1</v>
+      </c>
+      <c r="O59">
+        <v>8280.7999999999993</v>
+      </c>
+      <c r="P59">
+        <v>3831.2</v>
+      </c>
+      <c r="Q59">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>3798.8</v>
+      </c>
+      <c r="U59">
+        <v>97.6</v>
+      </c>
+      <c r="V59">
+        <v>314.7</v>
+      </c>
+      <c r="W59">
+        <v>-60.7</v>
+      </c>
+      <c r="X59">
+        <v>-23.1</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>96.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="D60">
+        <v>717.2</v>
+      </c>
+      <c r="E60">
+        <v>297.3</v>
+      </c>
+      <c r="F60">
+        <v>235.9</v>
+      </c>
+      <c r="G60">
+        <v>1043.9000000000001</v>
+      </c>
+      <c r="H60">
+        <v>12312.3</v>
+      </c>
+      <c r="I60">
+        <v>374.9</v>
+      </c>
+      <c r="J60">
+        <v>3717.4</v>
+      </c>
+      <c r="K60">
+        <v>120.9</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>991.5</v>
+      </c>
+      <c r="O60">
+        <v>8490.6</v>
+      </c>
+      <c r="P60">
+        <v>3871.8</v>
+      </c>
+      <c r="Q60">
+        <v>-42.8</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>3821.7</v>
+      </c>
+      <c r="U60">
+        <v>54.8</v>
+      </c>
+      <c r="V60">
+        <v>202.6</v>
+      </c>
+      <c r="W60">
+        <v>-62.2</v>
+      </c>
+      <c r="X60">
+        <v>-26</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>67.599999999999994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>179.9</v>
+      </c>
+      <c r="D61">
+        <v>898.9</v>
+      </c>
+      <c r="E61">
+        <v>427.3</v>
+      </c>
+      <c r="F61">
+        <v>368.8</v>
+      </c>
+      <c r="G61">
+        <v>1087.7</v>
+      </c>
+      <c r="H61">
+        <v>12558.6</v>
+      </c>
+      <c r="I61">
+        <v>438.3</v>
+      </c>
+      <c r="J61">
+        <v>3855.8</v>
+      </c>
+      <c r="K61">
+        <v>109.1</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>990.8</v>
+      </c>
+      <c r="O61">
+        <v>8612.5</v>
+      </c>
+      <c r="P61">
+        <v>3967.9</v>
+      </c>
+      <c r="Q61">
+        <v>84.4</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>3946.1</v>
+      </c>
+      <c r="U61">
+        <v>139.19999999999999</v>
+      </c>
+      <c r="V61">
+        <v>178</v>
+      </c>
+      <c r="W61">
+        <v>-62.2</v>
+      </c>
+      <c r="X61">
+        <v>49.1</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>179.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>34.1</v>
+      </c>
+      <c r="D62">
+        <v>740.1</v>
+      </c>
+      <c r="E62">
+        <v>344.1</v>
+      </c>
+      <c r="F62">
+        <v>205.7</v>
+      </c>
+      <c r="G62">
+        <v>826.8</v>
+      </c>
+      <c r="H62">
+        <v>12495.2</v>
+      </c>
+      <c r="I62">
+        <v>402.4</v>
+      </c>
+      <c r="J62">
+        <v>3522.2</v>
+      </c>
+      <c r="K62">
+        <v>159.80000000000001</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1359.3</v>
+      </c>
+      <c r="O62">
+        <v>8571.1</v>
+      </c>
+      <c r="P62">
+        <v>3995.4</v>
+      </c>
+      <c r="Q62">
+        <v>-133.4</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>4070</v>
+      </c>
+      <c r="T62">
+        <v>3924.1</v>
+      </c>
+      <c r="U62">
+        <v>5.8</v>
+      </c>
+      <c r="V62">
+        <v>175.9</v>
+      </c>
+      <c r="W62">
+        <v>-62.2</v>
+      </c>
+      <c r="X62">
+        <v>-3.1</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>96.5</v>
+      </c>
+      <c r="D63">
+        <v>843.8</v>
+      </c>
+      <c r="E63">
+        <v>390.6</v>
+      </c>
+      <c r="F63">
+        <v>274.7</v>
+      </c>
+      <c r="G63">
+        <v>768.5</v>
+      </c>
+      <c r="H63">
+        <v>12535</v>
+      </c>
+      <c r="I63">
+        <v>323.8</v>
+      </c>
+      <c r="J63">
+        <v>3522.7</v>
+      </c>
+      <c r="K63">
+        <v>213.4</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1348.5</v>
+      </c>
+      <c r="O63">
+        <v>8570.4</v>
+      </c>
+      <c r="P63">
+        <v>4049.5</v>
+      </c>
+      <c r="Q63">
+        <v>-1</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>3964.6</v>
+      </c>
+      <c r="U63">
+        <v>4.8</v>
+      </c>
+      <c r="V63">
+        <v>228.3</v>
+      </c>
+      <c r="W63">
+        <v>-66.5</v>
+      </c>
+      <c r="X63">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>83.9</v>
+      </c>
+      <c r="D64">
+        <v>754.6</v>
+      </c>
+      <c r="E64">
+        <v>316.3</v>
+      </c>
+      <c r="F64">
+        <v>255.7</v>
+      </c>
+      <c r="G64">
+        <v>702.3</v>
+      </c>
+      <c r="H64">
+        <v>12685.4</v>
+      </c>
+      <c r="I64">
+        <v>353</v>
+      </c>
+      <c r="J64">
+        <v>3588.4</v>
+      </c>
+      <c r="K64">
+        <v>220.6</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1373.2</v>
+      </c>
+      <c r="O64">
+        <v>8695.2000000000007</v>
+      </c>
+      <c r="P64">
+        <v>4123</v>
+      </c>
+      <c r="Q64">
+        <v>1.7</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>3990.2</v>
+      </c>
+      <c r="U64">
+        <v>6.5</v>
+      </c>
+      <c r="V64">
+        <v>281.7</v>
+      </c>
+      <c r="W64">
+        <v>-66.7</v>
+      </c>
+      <c r="X64">
+        <v>0.8</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>83.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>128.4</v>
+      </c>
+      <c r="D65">
+        <v>924.6</v>
+      </c>
+      <c r="E65">
+        <v>491.5</v>
+      </c>
+      <c r="F65">
+        <v>379</v>
+      </c>
+      <c r="G65">
+        <v>958.1</v>
+      </c>
+      <c r="H65">
+        <v>13029.2</v>
+      </c>
+      <c r="I65">
+        <v>365.1</v>
+      </c>
+      <c r="J65">
+        <v>3816.9</v>
+      </c>
+      <c r="K65">
+        <v>238.3</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1369.7</v>
+      </c>
+      <c r="O65">
+        <v>8970.1</v>
+      </c>
+      <c r="P65">
+        <v>4369.2</v>
+      </c>
+      <c r="Q65">
+        <v>78.2</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>4059.1</v>
+      </c>
+      <c r="U65">
+        <v>84.7</v>
+      </c>
+      <c r="V65">
+        <v>144</v>
+      </c>
+      <c r="W65">
+        <v>-66.599999999999994</v>
+      </c>
+      <c r="X65">
+        <v>205.2</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>128.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>62.7</v>
+      </c>
+      <c r="D66">
+        <v>797</v>
+      </c>
+      <c r="E66">
+        <v>404.3</v>
+      </c>
+      <c r="F66">
+        <v>227.9</v>
+      </c>
+      <c r="G66">
+        <v>877.1</v>
+      </c>
+      <c r="H66">
+        <v>13373.8</v>
+      </c>
+      <c r="I66">
+        <v>445.3</v>
+      </c>
+      <c r="J66">
+        <v>4315.6000000000004</v>
+      </c>
+      <c r="K66">
+        <v>244.1</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1162</v>
+      </c>
+      <c r="O66">
+        <v>9311.7999999999993</v>
+      </c>
+      <c r="P66">
+        <v>4564.3</v>
+      </c>
+      <c r="Q66">
+        <v>-76.5</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>3978</v>
+      </c>
+      <c r="T66">
+        <v>4062</v>
+      </c>
+      <c r="U66">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="V66">
+        <v>205.6</v>
+      </c>
+      <c r="W66">
+        <v>-66.7</v>
+      </c>
+      <c r="X66">
+        <v>132.6</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>100.4</v>
+      </c>
+      <c r="D67">
+        <v>853.9</v>
+      </c>
+      <c r="E67">
+        <v>424.9</v>
+      </c>
+      <c r="F67">
+        <v>280.60000000000002</v>
+      </c>
+      <c r="G67">
+        <v>749.8</v>
+      </c>
+      <c r="H67">
+        <v>13464.9</v>
+      </c>
+      <c r="I67">
+        <v>369.5</v>
+      </c>
+      <c r="J67">
+        <v>4316.1000000000004</v>
+      </c>
+      <c r="K67">
+        <v>302.8</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1165</v>
+      </c>
+      <c r="O67">
+        <v>9368</v>
+      </c>
+      <c r="P67">
+        <v>4623.5</v>
+      </c>
+      <c r="Q67">
+        <v>1.9</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>4096.8999999999996</v>
+      </c>
+      <c r="U67">
+        <v>8.4</v>
+      </c>
+      <c r="V67">
+        <v>119</v>
+      </c>
+      <c r="W67">
+        <v>-71.5</v>
+      </c>
+      <c r="X67">
+        <v>-29.9</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>94.3</v>
+      </c>
+      <c r="D68">
+        <v>765.3</v>
+      </c>
+      <c r="E68">
+        <v>424.9</v>
+      </c>
+      <c r="F68">
+        <v>294.39999999999998</v>
+      </c>
+      <c r="G68">
+        <v>814.7</v>
+      </c>
+      <c r="H68">
+        <v>13743.4</v>
+      </c>
+      <c r="I68">
+        <v>381.1</v>
+      </c>
+      <c r="J68">
+        <v>4354.3</v>
+      </c>
+      <c r="K68">
+        <v>368.6</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1208.2</v>
+      </c>
+      <c r="O68">
+        <v>9493</v>
+      </c>
+      <c r="P68">
+        <v>4728.1000000000004</v>
+      </c>
+      <c r="Q68">
+        <v>-2.8</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>4250.3999999999996</v>
+      </c>
+      <c r="U68">
+        <v>7.3</v>
+      </c>
+      <c r="V68">
+        <v>8.5</v>
+      </c>
+      <c r="W68">
+        <v>-71.599999999999994</v>
+      </c>
+      <c r="X68">
+        <v>153.4</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>168.8</v>
+      </c>
+      <c r="D69">
+        <v>906.9</v>
+      </c>
+      <c r="E69">
+        <v>336.1</v>
+      </c>
+      <c r="F69">
+        <v>384</v>
+      </c>
+      <c r="G69">
+        <v>751.5</v>
+      </c>
+      <c r="H69">
+        <v>14114.9</v>
+      </c>
+      <c r="I69">
+        <v>478.1</v>
+      </c>
+      <c r="J69">
+        <v>4255.1000000000004</v>
+      </c>
+      <c r="K69">
+        <v>485.3</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1470.1</v>
+      </c>
+      <c r="O69">
+        <v>9760.7000000000007</v>
+      </c>
+      <c r="P69">
+        <v>4845.6000000000004</v>
+      </c>
+      <c r="Q69">
+        <v>3</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>4354.2</v>
+      </c>
+      <c r="U69">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="V69">
+        <v>323.8</v>
+      </c>
+      <c r="W69">
+        <v>-72.599999999999994</v>
+      </c>
+      <c r="X69">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>168.8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>93.8</v>
+      </c>
+      <c r="D70">
+        <v>856.1</v>
+      </c>
+      <c r="E70">
+        <v>398.5</v>
+      </c>
+      <c r="F70">
+        <v>279.60000000000002</v>
+      </c>
+      <c r="G70">
+        <v>905.1</v>
+      </c>
+      <c r="H70">
+        <v>14187.8</v>
+      </c>
+      <c r="I70">
+        <v>477.3</v>
+      </c>
+      <c r="J70">
+        <v>4010.6</v>
+      </c>
+      <c r="K70">
+        <v>415.2</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2149</v>
+      </c>
+      <c r="O70">
+        <v>9805.6</v>
+      </c>
+      <c r="P70">
+        <v>5281.5</v>
+      </c>
+      <c r="Q70">
+        <v>18.7</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>3989</v>
+      </c>
+      <c r="T70">
+        <v>4382.2</v>
+      </c>
+      <c r="U70">
+        <v>27.9</v>
+      </c>
+      <c r="V70">
+        <v>70.3</v>
+      </c>
+      <c r="W70">
+        <v>-72.599999999999994</v>
+      </c>
+      <c r="X70">
+        <v>342.7</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>120.9</v>
+      </c>
+      <c r="D71">
+        <v>916.3</v>
+      </c>
+      <c r="E71">
+        <v>343.2</v>
+      </c>
+      <c r="F71">
+        <v>313.10000000000002</v>
+      </c>
+      <c r="G71">
+        <v>725.9</v>
+      </c>
+      <c r="H71">
+        <v>14241.8</v>
+      </c>
+      <c r="I71">
+        <v>363.1</v>
+      </c>
+      <c r="J71">
+        <v>4056.8</v>
+      </c>
+      <c r="K71">
+        <v>431.4</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>2073.5</v>
+      </c>
+      <c r="O71">
+        <v>9810.2999999999993</v>
+      </c>
+      <c r="P71">
+        <v>5343.9</v>
+      </c>
+      <c r="Q71">
+        <v>-5.7</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>4431.5</v>
+      </c>
+      <c r="U71">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="V71">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="W71">
+        <v>-77.5</v>
+      </c>
+      <c r="X71">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>120.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>100.4</v>
+      </c>
+      <c r="D72">
+        <v>816.1</v>
+      </c>
+      <c r="E72">
+        <v>415</v>
+      </c>
+      <c r="F72">
+        <v>302.39999999999998</v>
+      </c>
+      <c r="G72">
+        <v>805.9</v>
+      </c>
+      <c r="H72">
+        <v>14615</v>
+      </c>
+      <c r="I72">
+        <v>431.1</v>
+      </c>
+      <c r="J72">
+        <v>5127.5</v>
+      </c>
+      <c r="K72">
+        <v>82.5</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1257.4000000000001</v>
+      </c>
+      <c r="O72">
+        <v>10064.299999999999</v>
+      </c>
+      <c r="P72">
+        <v>5566.1</v>
+      </c>
+      <c r="Q72">
+        <v>-16.2</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>4550.7</v>
+      </c>
+      <c r="U72">
+        <v>5</v>
+      </c>
+      <c r="V72">
+        <v>118.1</v>
+      </c>
+      <c r="W72">
+        <v>-77.3</v>
+      </c>
+      <c r="X72">
+        <v>231.4</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>205.5</v>
+      </c>
+      <c r="D73">
+        <v>928.6</v>
+      </c>
+      <c r="E73">
+        <v>465.3</v>
+      </c>
+      <c r="F73">
+        <v>412</v>
+      </c>
+      <c r="G73">
+        <v>1124.8</v>
+      </c>
+      <c r="H73">
+        <v>15269.8</v>
+      </c>
+      <c r="I73">
+        <v>498.1</v>
+      </c>
+      <c r="J73">
+        <v>5248.2</v>
+      </c>
+      <c r="K73">
+        <v>136.80000000000001</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1548.3</v>
+      </c>
+      <c r="O73">
+        <v>10499.4</v>
+      </c>
+      <c r="P73">
+        <v>5891.1</v>
+      </c>
+      <c r="Q73">
+        <v>235.8</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>4770.3999999999996</v>
+      </c>
+      <c r="U73">
+        <v>239.7</v>
+      </c>
+      <c r="V73">
+        <v>167.8</v>
+      </c>
+      <c r="W73">
+        <v>-78.5</v>
+      </c>
+      <c r="X73">
+        <v>365.8</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>205.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>85.3</v>
+      </c>
+      <c r="D74">
+        <v>873.5</v>
+      </c>
+      <c r="E74">
+        <v>274.10000000000002</v>
+      </c>
+      <c r="F74">
+        <v>278.2</v>
+      </c>
+      <c r="G74">
+        <v>785.1</v>
+      </c>
+      <c r="H74">
+        <v>15426</v>
+      </c>
+      <c r="I74">
+        <v>543.29999999999995</v>
+      </c>
+      <c r="J74">
+        <v>5246.3</v>
+      </c>
+      <c r="K74">
+        <v>441.2</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1644.1</v>
+      </c>
+      <c r="O74">
+        <v>10640.3</v>
+      </c>
+      <c r="P74">
+        <v>5944</v>
+      </c>
+      <c r="Q74">
+        <v>-222.3</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>3885</v>
+      </c>
+      <c r="T74">
+        <v>4785.7</v>
+      </c>
+      <c r="U74">
+        <v>20.9</v>
+      </c>
+      <c r="V74">
+        <v>85.5</v>
+      </c>
+      <c r="W74">
+        <v>-78.900000000000006</v>
+      </c>
+      <c r="X74">
+        <v>-56.7</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>85.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>125.1</v>
+      </c>
+      <c r="D75">
+        <v>987.2</v>
+      </c>
+      <c r="E75">
+        <v>417.9</v>
+      </c>
+      <c r="F75">
+        <v>343</v>
+      </c>
+      <c r="G75">
+        <v>815.2</v>
+      </c>
+      <c r="H75">
+        <v>15713.4</v>
+      </c>
+      <c r="I75">
+        <v>387.7</v>
+      </c>
+      <c r="J75">
+        <v>5362.2</v>
+      </c>
+      <c r="K75">
+        <v>514.70000000000005</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-0.3</v>
+      </c>
+      <c r="N75">
+        <v>1587.7</v>
+      </c>
+      <c r="O75">
+        <v>10831</v>
+      </c>
+      <c r="P75">
+        <v>6151.4</v>
+      </c>
+      <c r="Q75">
+        <v>-7.7</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>4882.3999999999996</v>
+      </c>
+      <c r="U75">
+        <v>10.1</v>
+      </c>
+      <c r="V75">
+        <v>181.1</v>
+      </c>
+      <c r="W75">
+        <v>-83.7</v>
+      </c>
+      <c r="X75">
+        <v>176</v>
+      </c>
+      <c r="Y75">
+        <v>15</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>125.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>94.6</v>
+      </c>
+      <c r="D76">
+        <v>790.2</v>
+      </c>
+      <c r="E76">
+        <v>421.5</v>
+      </c>
+      <c r="F76">
+        <v>320.3</v>
+      </c>
+      <c r="G76">
+        <v>1027.3</v>
+      </c>
+      <c r="H76">
+        <v>16121.6</v>
+      </c>
+      <c r="I76">
+        <v>422.5</v>
+      </c>
+      <c r="J76">
+        <v>5438.1</v>
+      </c>
+      <c r="K76">
+        <v>390.5</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1949</v>
+      </c>
+      <c r="O76">
+        <v>11222</v>
+      </c>
+      <c r="P76">
+        <v>6552.4</v>
+      </c>
+      <c r="Q76">
+        <v>156.4</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>4899.6000000000004</v>
+      </c>
+      <c r="U76">
+        <v>170.2</v>
+      </c>
+      <c r="V76">
+        <v>95.8</v>
+      </c>
+      <c r="W76">
+        <v>-84.1</v>
+      </c>
+      <c r="X76">
+        <v>302.8</v>
+      </c>
+      <c r="Y76">
+        <v>15</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>94.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>226.3</v>
+      </c>
+      <c r="D77">
+        <v>990</v>
+      </c>
+      <c r="E77">
+        <v>451.5</v>
+      </c>
+      <c r="F77">
+        <v>461</v>
+      </c>
+      <c r="G77">
+        <v>1113</v>
+      </c>
+      <c r="H77">
+        <v>16533.400000000001</v>
+      </c>
+      <c r="I77">
+        <v>497.7</v>
+      </c>
+      <c r="J77">
+        <v>5535.1</v>
+      </c>
+      <c r="K77">
+        <v>349.6</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>2082.1</v>
+      </c>
+      <c r="O77">
+        <v>11364.2</v>
+      </c>
+      <c r="P77">
+        <v>6558.5</v>
+      </c>
+      <c r="Q77">
+        <v>25.3</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>5169.2</v>
+      </c>
+      <c r="U77">
+        <v>193.7</v>
+      </c>
+      <c r="V77">
+        <v>232.1</v>
+      </c>
+      <c r="W77">
+        <v>-85.2</v>
+      </c>
+      <c r="X77">
+        <v>47.2</v>
+      </c>
+      <c r="Y77">
+        <v>15</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>111</v>
+      </c>
+      <c r="D78">
+        <v>880</v>
+      </c>
+      <c r="E78">
+        <v>355</v>
+      </c>
+      <c r="F78">
+        <v>331</v>
+      </c>
+      <c r="G78">
+        <v>876</v>
+      </c>
+      <c r="H78">
+        <v>16701</v>
+      </c>
+      <c r="I78">
+        <v>422</v>
+      </c>
+      <c r="J78">
+        <v>5533</v>
+      </c>
+      <c r="K78">
+        <v>337</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2054</v>
+      </c>
+      <c r="O78">
+        <v>11296</v>
+      </c>
+      <c r="P78">
+        <v>6543</v>
+      </c>
+      <c r="Q78">
+        <v>-182</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>3597</v>
+      </c>
+      <c r="T78">
+        <v>5405</v>
+      </c>
+      <c r="U78">
+        <v>16</v>
+      </c>
+      <c r="V78">
+        <v>151</v>
+      </c>
+      <c r="W78">
+        <v>-84</v>
+      </c>
+      <c r="X78">
+        <v>93</v>
+      </c>
+      <c r="Y78">
+        <v>14</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>170</v>
+      </c>
+      <c r="D79">
+        <v>915.7</v>
+      </c>
+      <c r="E79">
+        <v>348.7</v>
+      </c>
+      <c r="F79">
+        <v>362.2</v>
+      </c>
+      <c r="G79">
+        <v>912.2</v>
+      </c>
+      <c r="H79">
+        <v>16879</v>
+      </c>
+      <c r="I79">
+        <v>375.4</v>
+      </c>
+      <c r="J79">
+        <v>5833.9</v>
+      </c>
+      <c r="K79">
+        <v>270.5</v>
+      </c>
+      <c r="L79">
+        <v>-66.900000000000006</v>
+      </c>
+      <c r="M79">
+        <v>-300.3</v>
+      </c>
+      <c r="N79">
+        <v>1650.2</v>
+      </c>
+      <c r="O79">
+        <v>11176.6</v>
+      </c>
+      <c r="P79">
+        <v>6461.6</v>
+      </c>
+      <c r="Q79">
+        <v>40.9</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>5702.4</v>
+      </c>
+      <c r="U79">
+        <v>55.2</v>
+      </c>
+      <c r="V79">
+        <v>160.19999999999999</v>
+      </c>
+      <c r="W79">
+        <v>-93</v>
+      </c>
+      <c r="X79">
+        <v>60.3</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>134.4</v>
+      </c>
+      <c r="D80">
+        <v>763.1</v>
+      </c>
+      <c r="E80">
+        <v>345</v>
+      </c>
+      <c r="F80">
+        <v>347.3</v>
+      </c>
+      <c r="G80">
+        <v>1044.3</v>
+      </c>
+      <c r="H80">
+        <v>17269.7</v>
+      </c>
+      <c r="I80">
+        <v>429.9</v>
+      </c>
+      <c r="J80">
+        <v>6572.4</v>
+      </c>
+      <c r="K80">
+        <v>185.4</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1220.9000000000001</v>
+      </c>
+      <c r="O80">
+        <v>11521.4</v>
+      </c>
+      <c r="P80">
+        <v>6765.2</v>
+      </c>
+      <c r="Q80">
+        <v>150.80000000000001</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>5748.3</v>
+      </c>
+      <c r="U80">
+        <v>208.1</v>
+      </c>
+      <c r="V80">
+        <v>159.5</v>
+      </c>
+      <c r="W80">
+        <v>-94.6</v>
+      </c>
+      <c r="X80">
+        <v>204</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>134.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>245.6</v>
+      </c>
+      <c r="D81">
+        <v>920</v>
+      </c>
+      <c r="E81">
+        <v>345</v>
+      </c>
+      <c r="F81">
+        <v>455</v>
+      </c>
+      <c r="G81">
+        <v>1033</v>
+      </c>
+      <c r="H81">
+        <v>17540</v>
+      </c>
+      <c r="I81">
+        <v>417</v>
+      </c>
+      <c r="J81">
+        <v>6574</v>
+      </c>
+      <c r="K81">
+        <v>422</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1295</v>
+      </c>
+      <c r="O81">
+        <v>11631</v>
+      </c>
+      <c r="P81">
+        <v>7003</v>
+      </c>
+      <c r="Q81">
+        <v>-15.7</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>5909</v>
+      </c>
+      <c r="U81">
+        <v>189</v>
+      </c>
+      <c r="V81">
+        <v>116.3</v>
+      </c>
+      <c r="W81">
+        <v>-93.4</v>
+      </c>
+      <c r="X81">
+        <v>154.69999999999999</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>64</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>817</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>353</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>299</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>887</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>17710</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>377</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>6769</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>389</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>1297</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>11822</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>7181</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-138</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>3375</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>5888</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>54</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>65</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-96</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>69</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>13</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>64</v>
       </c>
     </row>
